--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RAMMS\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -300,7 +300,7 @@
     <numFmt numFmtId="172" formatCode="0\ &quot;no&quot;"/>
     <numFmt numFmtId="173" formatCode="0\ &quot;m&quot;"/>
     <numFmt numFmtId="174" formatCode="&quot;( &quot;0.0%&quot; )&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="175" formatCode="0.0%"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1285,9 +1285,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,7 +1417,6 @@
     <xf numFmtId="168" fontId="19" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="19" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1585,21 +1581,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="10" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="20" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1"/>
@@ -1609,18 +1599,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="22" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="20" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="20" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="20" fillId="3" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="3" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1628,38 +1618,164 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1674,161 +1790,45 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1839,126 +1839,7 @@
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2252,10 +2133,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2265,8 +2146,8 @@
     <col min="3" max="3" width="27.81640625" customWidth="1"/>
     <col min="4" max="6" width="7.26953125" customWidth="1"/>
     <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="10" width="4.7265625" style="117" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="125" customWidth="1"/>
+    <col min="8" max="10" width="4.7265625" style="114" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="121" customWidth="1"/>
     <col min="12" max="14" width="6.54296875" customWidth="1"/>
     <col min="15" max="15" width="8.26953125" customWidth="1"/>
     <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
@@ -2275,68 +2156,68 @@
     <col min="19" max="22" width="10.26953125" customWidth="1"/>
     <col min="23" max="23" width="12.7265625" customWidth="1"/>
     <col min="24" max="24" width="6.81640625" customWidth="1"/>
-    <col min="25" max="25" width="13.453125" style="117" customWidth="1"/>
+    <col min="25" max="25" width="13.453125" style="114" customWidth="1"/>
     <col min="26" max="26" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
+      <c r="C1" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="161" t="s">
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-    </row>
-    <row r="3" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+    </row>
+    <row r="3" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2357,17 +2238,17 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="162" t="s">
+      <c r="U3" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="162"/>
-      <c r="W3" s="163" t="s">
+      <c r="V3" s="152"/>
+      <c r="W3" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="165"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X3" s="154"/>
+      <c r="Y3" s="155"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2388,172 +2269,172 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="135" t="s">
+      <c r="U4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="136">
-        <v>0</v>
-      </c>
-      <c r="W4" s="135" t="s">
+      <c r="V4" s="132">
+        <v>0</v>
+      </c>
+      <c r="W4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-    </row>
-    <row r="5" spans="1:26" s="134" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="167" t="s">
+      <c r="X4" s="156"/>
+      <c r="Y4" s="156"/>
+    </row>
+    <row r="5" spans="1:25" s="130" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158" t="s">
+      <c r="C6" s="173"/>
+      <c r="D6" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158" t="s">
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="159" t="s">
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="158" t="s">
+      <c r="L6" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="158"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="157" t="s">
+      <c r="M6" s="173"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="157" t="s">
+      <c r="Q6" s="161"/>
+      <c r="R6" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="169" t="s">
+      <c r="S6" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="170"/>
-      <c r="U6" s="170"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="172" t="s">
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="173"/>
-      <c r="Y6" s="174"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="167"/>
-      <c r="B7" s="175" t="s">
+      <c r="X6" s="169"/>
+      <c r="Y6" s="170"/>
+    </row>
+    <row r="7" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="181"/>
+      <c r="B7" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="176" t="s">
+      <c r="D7" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="179" t="s">
+      <c r="E7" s="175"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="181"/>
-      <c r="U7" s="181"/>
-      <c r="V7" s="182"/>
-      <c r="W7" s="183" t="s">
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="167"/>
+      <c r="W7" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="184"/>
+      <c r="X7" s="180"/>
       <c r="Y7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="167"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="186" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="181"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="187" t="s">
+      <c r="E8" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="188" t="s">
+      <c r="F8" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="189"/>
-      <c r="H8" s="186" t="s">
+      <c r="G8" s="178"/>
+      <c r="H8" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="187" t="s">
+      <c r="I8" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="188" t="s">
+      <c r="J8" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="186" t="s">
+      <c r="K8" s="133"/>
+      <c r="L8" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="187" t="s">
+      <c r="M8" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="190" t="s">
+      <c r="N8" s="137" t="s">
         <v>23</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="191" t="s">
+      <c r="P8" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="192" t="s">
+      <c r="Q8" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="157"/>
-      <c r="S8" s="193" t="s">
+      <c r="R8" s="160"/>
+      <c r="S8" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="194" t="s">
+      <c r="T8" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="194" t="s">
+      <c r="U8" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="195" t="s">
+      <c r="V8" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="196" t="s">
+      <c r="W8" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="197" t="s">
+      <c r="X8" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="198" t="s">
+      <c r="Y8" s="145" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="152" t="s">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="182" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="7">
@@ -2562,791 +2443,789 @@
       <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="199"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="202">
+      <c r="D9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="149">
         <f>SUM(D9:F9)</f>
         <v>0</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="12">
+      <c r="K9" s="199">
         <f>IF(G9,O9/G9,0)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <f>H9*D9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <f>E9*I9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <f>F9*J9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <f>SUM(L9:N9)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="19">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18">
         <f>IF(P9,O9/P9,0)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22">
+      <c r="S9" s="19"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21">
         <f>SUM(S9:U9)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W9" s="22">
         <f>R9*V9</f>
         <v>0</v>
       </c>
-      <c r="X9" s="24">
+      <c r="X9" s="23">
         <f>SUM(IF($W$48,W9/$W$48,0))</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="25"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="139"/>
-      <c r="B10" s="26">
+      <c r="Y9" s="24"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="183"/>
+      <c r="B10" s="25">
         <v>1012</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="199"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="28">
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="27">
         <f>SUM(D10:F10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="12">
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="199">
         <f t="shared" ref="K10:K46" si="0">IF(G10,O10/G10,0)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="31">
         <f t="shared" ref="L10:L44" si="1">H10*D10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="32">
         <f t="shared" ref="M10:N46" si="2">E10*I10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="35">
+      <c r="N10" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="34">
         <f t="shared" ref="O10:O46" si="3">SUM(L10:N10)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="19">
+      <c r="P10" s="28"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="18">
         <f t="shared" ref="R10:R46" si="4">IF(P10,O10/P10,0)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="39">
+      <c r="S10" s="36"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="38">
         <f>SUM(S10:U10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="22">
         <f>R10*V10</f>
         <v>0</v>
       </c>
-      <c r="X10" s="24">
+      <c r="X10" s="23">
         <f t="shared" ref="X10:X46" si="5">SUM(IF($W$48,W10/$W$48,0))</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="40"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="139"/>
-      <c r="B11" s="26">
+      <c r="Y10" s="39"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" s="183"/>
+      <c r="B11" s="25">
         <v>3013</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="199"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="41">
-        <f t="shared" ref="G11:G24" si="6">SUM(D11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="12">
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="40">
+        <f t="shared" ref="G11:G22" si="6">SUM(D11:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="35">
+      <c r="M11" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="19">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S11" s="44"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="46">
+      <c r="S11" s="43"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="45">
         <f t="shared" ref="V11:V46" si="7">SUM(S11:U11)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="22">
         <f>R11*V11</f>
         <v>0</v>
       </c>
-      <c r="X11" s="24">
+      <c r="X11" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="40"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="139"/>
-      <c r="B12" s="26">
+      <c r="Y11" s="39"/>
+    </row>
+    <row r="12" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="183"/>
+      <c r="B12" s="25">
         <v>3014</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="199"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="28">
+      <c r="D12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="27">
         <f>SUM(D12:F12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="12">
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="35">
+      <c r="L12" s="31"/>
+      <c r="M12" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="19">
+      <c r="P12" s="46"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S12" s="44"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="50">
+      <c r="S12" s="43"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="49">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="23">
-        <f t="shared" ref="W12:W48" si="8">R12*V12</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="24">
+      <c r="W12" s="22">
+        <f t="shared" ref="W12:W46" si="8">R12*V12</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="51"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="139"/>
-      <c r="B13" s="26">
+      <c r="Y12" s="50"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" s="183"/>
+      <c r="B13" s="25">
         <v>3015</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="199"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="28">
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="27">
         <f>SUM(D13:F13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="12">
+      <c r="H13" s="51"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35">
+      <c r="M13" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="19">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S13" s="44"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="39">
+      <c r="S13" s="43"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X13" s="24">
+      <c r="X13" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="56">
+      <c r="Y13" s="55">
         <f>SUM(W9:W17)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="57"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="139"/>
-      <c r="B14" s="26">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" s="183"/>
+      <c r="B14" s="25">
         <v>3016</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="199"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="41">
+      <c r="D14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="40">
         <f>SUM(D14:F14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="12">
+      <c r="H14" s="51"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="34"/>
-      <c r="O14" s="35">
+      <c r="M14" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="19">
+      <c r="P14" s="46"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S14" s="44"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="46">
+      <c r="S14" s="43"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X14" s="24">
+      <c r="X14" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="58">
+      <c r="Y14" s="56">
         <f>SUM(X9:X17)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="57"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="139"/>
-      <c r="B15" s="26">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="183"/>
+      <c r="B15" s="25">
         <v>3017</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="199"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="41">
+      <c r="D15" s="146"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="40">
         <f>SUM(D15:F15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="12">
+      <c r="H15" s="51"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="35">
+      <c r="M15" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="19">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="44"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="39">
+      <c r="S15" s="43"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X15" s="24">
+      <c r="X15" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="40"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="139"/>
-      <c r="B16" s="26">
+      <c r="Y15" s="39"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="183"/>
+      <c r="B16" s="25">
         <v>3018</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="28">
+      <c r="D16" s="146"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="12">
+      <c r="H16" s="51"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="35">
+      <c r="M16" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="19">
+      <c r="P16" s="46"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="46">
+      <c r="S16" s="43"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X16" s="24">
+      <c r="X16" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="40"/>
+      <c r="Y16" s="39"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="139"/>
-      <c r="B17" s="61">
+      <c r="A17" s="183"/>
+      <c r="B17" s="59">
         <v>3019</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="199"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="63">
+      <c r="D17" s="146"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="61">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="12">
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="67">
+      <c r="L17" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="70">
+      <c r="M17" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="19">
+      <c r="P17" s="69"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S17" s="73"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="75">
+      <c r="S17" s="71"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X17" s="24">
+      <c r="X17" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="76"/>
+      <c r="Y17" s="74"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="152" t="s">
+      <c r="A18" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="77">
+      <c r="B18" s="75">
         <v>1021</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="28">
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="12">
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="79">
+      <c r="M18" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="19">
+      <c r="P18" s="46"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="22">
+      <c r="S18" s="36"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X18" s="24">
+      <c r="X18" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="25"/>
+      <c r="Y18" s="24"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="139"/>
-      <c r="B19" s="26">
+      <c r="A19" s="183"/>
+      <c r="B19" s="25">
         <v>3022</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="199"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="28">
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="12">
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="35">
+      <c r="M19" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="19">
+      <c r="P19" s="28"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S19" s="44"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="46">
+      <c r="S19" s="43"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X19" s="24">
+      <c r="X19" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="56">
+      <c r="Y19" s="55">
         <f>SUM(W18:W21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="139"/>
-      <c r="B20" s="26">
+      <c r="A20" s="183"/>
+      <c r="B20" s="25">
         <v>3023</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="41">
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="12">
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="35">
+      <c r="L20" s="41"/>
+      <c r="M20" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="19">
+      <c r="P20" s="28"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S20" s="44"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="46">
+      <c r="S20" s="43"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X20" s="24">
+      <c r="X20" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="58">
+      <c r="Y20" s="56">
         <f>SUM(X18:X21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="153"/>
-      <c r="B21" s="61">
+      <c r="A21" s="184"/>
+      <c r="B21" s="59">
         <v>3024</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="199"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="63">
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="61">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="12">
+      <c r="H21" s="79"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="67">
+      <c r="L21" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="70">
+      <c r="M21" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="19">
+      <c r="P21" s="79"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S21" s="73"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="87">
+      <c r="S21" s="71"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X21" s="24">
+      <c r="X21" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="76"/>
+      <c r="Y21" s="74"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="157" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="7">
@@ -3355,681 +3234,681 @@
       <c r="C22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="199"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="28">
+      <c r="D22" s="146"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="12">
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="88">
+      <c r="L22" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="89">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="16">
+      <c r="M22" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="19">
+      <c r="P22" s="28"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S22" s="20"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="22">
+      <c r="S22" s="19"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W22" s="23">
+      <c r="W22" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X22" s="24">
+      <c r="X22" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="25"/>
+      <c r="Y22" s="24"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="155"/>
-      <c r="B23" s="26">
+      <c r="A23" s="158"/>
+      <c r="B23" s="25">
         <v>1042</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="199"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="201"/>
-      <c r="G23" s="90">
+      <c r="D23" s="146"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="88">
         <f>SUM(D23:F23)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="12">
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="35">
+      <c r="M23" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="19">
+      <c r="P23" s="28"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="44"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="46">
+      <c r="S23" s="43"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W23" s="23">
+      <c r="W23" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X23" s="24">
+      <c r="X23" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="40"/>
+      <c r="Y23" s="39"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="155"/>
-      <c r="B24" s="26">
+      <c r="A24" s="158"/>
+      <c r="B24" s="25">
         <v>1043</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="199"/>
-      <c r="E24" s="200"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="92">
+      <c r="D24" s="146"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="90">
         <f t="shared" ref="G24:G34" si="9">SUM(D24:F24)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="12">
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="19">
+      <c r="M24" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="34"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S24" s="44"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="75">
+      <c r="S24" s="43"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W24" s="23">
+      <c r="W24" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X24" s="24">
+      <c r="X24" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="56">
+      <c r="Y24" s="55">
         <f>SUM(W22:W26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="155"/>
-      <c r="B25" s="26">
+      <c r="A25" s="158"/>
+      <c r="B25" s="25">
         <v>4044</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="199"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="92">
+      <c r="D25" s="146"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="90">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="12">
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="35">
+      <c r="M25" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="19">
+      <c r="P25" s="28"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S25" s="44"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="50">
+      <c r="S25" s="43"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="49">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W25" s="23">
+      <c r="W25" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X25" s="24">
+      <c r="X25" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="58">
+      <c r="Y25" s="56">
         <f>SUM(X22:X26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="155"/>
-      <c r="B26" s="61">
+      <c r="A26" s="158"/>
+      <c r="B26" s="59">
         <v>4045</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="199"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="63">
+      <c r="D26" s="146"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="61">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="12">
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="93">
+      <c r="L26" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="70">
+      <c r="M26" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="19">
+      <c r="P26" s="46"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S26" s="73"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="87">
+      <c r="S26" s="71"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W26" s="23">
+      <c r="W26" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X26" s="24">
+      <c r="X26" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="76"/>
+      <c r="Y26" s="74"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="154" t="s">
+      <c r="A27" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="77">
+      <c r="B27" s="75">
         <v>1031</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="199"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="201"/>
-      <c r="G27" s="94">
+      <c r="D27" s="146"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="12">
+      <c r="H27" s="16"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="88">
+      <c r="L27" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="16">
+      <c r="M27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="19">
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S27" s="20"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="22">
+      <c r="S27" s="19"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W27" s="23">
+      <c r="W27" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X27" s="24">
+      <c r="X27" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="25"/>
+      <c r="Y27" s="24"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="155"/>
-      <c r="B28" s="26">
+      <c r="A28" s="158"/>
+      <c r="B28" s="25">
         <v>1032</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="199"/>
-      <c r="E28" s="200"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="90">
+      <c r="D28" s="146"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="88">
         <f>SUM(D28:F28)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="12">
+      <c r="H28" s="28"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="54">
+      <c r="L28" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="35">
+      <c r="M28" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="19">
+      <c r="P28" s="28"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S28" s="44"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46">
+      <c r="S28" s="43"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W28" s="23">
+      <c r="W28" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X28" s="24">
+      <c r="X28" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="56">
+      <c r="Y28" s="55">
         <f>SUM(W27:W30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="155"/>
-      <c r="B29" s="26">
+      <c r="A29" s="158"/>
+      <c r="B29" s="25">
         <v>4033</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="199"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="90">
+      <c r="D29" s="146"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="88">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="12">
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="34"/>
-      <c r="O29" s="35">
+      <c r="L29" s="53"/>
+      <c r="M29" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="33"/>
+      <c r="O29" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="19">
+      <c r="P29" s="46"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S29" s="44"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="46">
+      <c r="S29" s="43"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W29" s="23">
+      <c r="W29" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X29" s="24">
+      <c r="X29" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="58">
+      <c r="Y29" s="56">
         <f>SUM(X27:X30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="155"/>
-      <c r="B30" s="61">
+      <c r="A30" s="158"/>
+      <c r="B30" s="59">
         <v>4034</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="199"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="201"/>
-      <c r="G30" s="90">
+      <c r="D30" s="146"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="88">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="12">
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="93">
+      <c r="L30" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="70">
+      <c r="M30" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="19">
+      <c r="P30" s="28"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S30" s="73"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="87">
+      <c r="S30" s="71"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W30" s="23">
+      <c r="W30" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X30" s="24">
+      <c r="X30" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="76"/>
+      <c r="Y30" s="74"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="157" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="7">
         <v>1051</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="199"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="201"/>
-      <c r="G31" s="97">
+      <c r="D31" s="146"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="95">
         <f>SUM(D31:F31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="12">
+      <c r="H31" s="16"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="98">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="89">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="16">
+      <c r="M31" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="19">
+      <c r="P31" s="16"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="99">
+      <c r="S31" s="36"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="97">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W31" s="23">
+      <c r="W31" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X31" s="24">
+      <c r="X31" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="56">
+      <c r="Y31" s="55">
         <f>SUM(W31:W32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="155"/>
-      <c r="B32" s="61">
+      <c r="A32" s="158"/>
+      <c r="B32" s="59">
         <v>6052</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="199"/>
-      <c r="E32" s="200"/>
-      <c r="F32" s="201"/>
-      <c r="G32" s="100">
+      <c r="D32" s="146"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="98">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="12">
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="67">
+      <c r="L32" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="70">
+      <c r="M32" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="19">
+      <c r="P32" s="28"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S32" s="73"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="75">
+      <c r="S32" s="71"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W32" s="23">
+      <c r="W32" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X32" s="24">
+      <c r="X32" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="58">
+      <c r="Y32" s="56">
         <f>SUM(X31:X32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="154" t="s">
+      <c r="A33" s="157" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="7">
@@ -4038,499 +3917,499 @@
       <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="199"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="201"/>
-      <c r="G33" s="97">
+      <c r="D33" s="146"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="12">
+      <c r="H33" s="16"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="89">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="16">
+      <c r="M33" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="19">
+      <c r="P33" s="16"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S33" s="37"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="99">
+      <c r="S33" s="36"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="97">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W33" s="23">
+      <c r="W33" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X33" s="24">
+      <c r="X33" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="25"/>
+      <c r="Y33" s="24"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="155"/>
-      <c r="B34" s="26">
+      <c r="A34" s="158"/>
+      <c r="B34" s="25">
         <v>6062</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="97">
+      <c r="D34" s="146"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="12">
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="35"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="19">
+      <c r="M34" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="34"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S34" s="44"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="50">
+      <c r="S34" s="43"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="49">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W34" s="23">
+      <c r="W34" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X34" s="24">
+      <c r="X34" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="56">
+      <c r="Y34" s="55">
         <f>SUM(W33:W35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="156"/>
-      <c r="B35" s="61">
+      <c r="A35" s="159"/>
+      <c r="B35" s="59">
         <v>6063</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="199"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="101">
+      <c r="D35" s="146"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="99">
         <f t="shared" ref="G35:G40" si="10">SUM(D35:F35)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="12">
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="67">
+      <c r="L35" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="70">
+      <c r="M35" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="19">
+      <c r="P35" s="46"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S35" s="73"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="87">
+      <c r="S35" s="71"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W35" s="23">
+      <c r="W35" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X35" s="24">
+      <c r="X35" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="58">
+      <c r="Y35" s="56">
         <f>SUM(X33:X35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="139" t="s">
+      <c r="A36" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="77">
+      <c r="B36" s="75">
         <v>1071</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="199"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="201"/>
-      <c r="G36" s="102">
+      <c r="D36" s="146"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="100">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="12">
+      <c r="K36" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="88">
+      <c r="L36" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="16">
+      <c r="M36" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P36" s="9"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="19">
+      <c r="Q36" s="101"/>
+      <c r="R36" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S36" s="37"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="22">
+      <c r="S36" s="36"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W36" s="23">
+      <c r="W36" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X36" s="24">
+      <c r="X36" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="25"/>
+      <c r="Y36" s="24"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="139"/>
-      <c r="B37" s="26">
+      <c r="A37" s="183"/>
+      <c r="B37" s="25">
         <v>1072</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="199"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="104">
+      <c r="D37" s="146"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="102">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="12">
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="42">
+      <c r="L37" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="35">
+      <c r="M37" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="19">
+      <c r="P37" s="28"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S37" s="44"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="46">
+      <c r="S37" s="43"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W37" s="23">
+      <c r="W37" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X37" s="24">
+      <c r="X37" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="56">
+      <c r="Y37" s="55">
         <f>SUM(W36:W40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="139"/>
-      <c r="B38" s="26">
+      <c r="A38" s="183"/>
+      <c r="B38" s="25">
         <v>1073</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="199"/>
-      <c r="E38" s="200"/>
-      <c r="F38" s="201"/>
-      <c r="G38" s="105">
+      <c r="D38" s="146"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="103">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="12">
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="42">
+      <c r="L38" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M38" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="35">
+      <c r="M38" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="19">
+      <c r="P38" s="28"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S38" s="44"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="75">
+      <c r="S38" s="43"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W38" s="23">
+      <c r="W38" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X38" s="24">
+      <c r="X38" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="58">
+      <c r="Y38" s="56">
         <f>SUM(X36:X40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="139"/>
-      <c r="B39" s="26">
+      <c r="A39" s="183"/>
+      <c r="B39" s="25">
         <v>7074</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="199"/>
-      <c r="E39" s="200"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="106">
+      <c r="D39" s="146"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="12">
+      <c r="H39" s="28"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="32">
+      <c r="L39" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="35">
+      <c r="M39" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="19">
+      <c r="P39" s="28"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S39" s="44"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="75">
+      <c r="S39" s="43"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W39" s="23">
+      <c r="W39" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X39" s="24">
+      <c r="X39" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="107"/>
+      <c r="Y39" s="105"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="139"/>
-      <c r="B40" s="61">
+      <c r="A40" s="183"/>
+      <c r="B40" s="59">
         <v>7075</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="199"/>
-      <c r="E40" s="200"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="108">
+      <c r="D40" s="146"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="106">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H40" s="71"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="12">
+      <c r="H40" s="69"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L40" s="93">
+      <c r="L40" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="70">
+      <c r="M40" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="19">
+      <c r="P40" s="69"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S40" s="73"/>
-      <c r="T40" s="74"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="75">
+      <c r="S40" s="71"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W40" s="23">
+      <c r="W40" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X40" s="24">
+      <c r="X40" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="76"/>
+      <c r="Y40" s="74"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="191" t="s">
         <v>72</v>
       </c>
       <c r="B41" s="7">
@@ -4539,441 +4418,441 @@
       <c r="C41" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="199"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="110">
+      <c r="D41" s="146"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="108">
         <f>SUM(D41:F41)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="47"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="12">
+      <c r="H41" s="46"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L41" s="88">
+      <c r="L41" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M41" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="16">
+      <c r="M41" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="19">
+      <c r="P41" s="46"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S41" s="37"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="99">
+      <c r="S41" s="36"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="97">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W41" s="23">
+      <c r="W41" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X41" s="24">
+      <c r="X41" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="25"/>
+      <c r="Y41" s="24"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="141"/>
-      <c r="B42" s="26">
+      <c r="A42" s="192"/>
+      <c r="B42" s="25">
         <v>9092</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="199"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="201"/>
-      <c r="G42" s="106">
+      <c r="D42" s="146"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="104">
         <f>SUM(D42:F42)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="12">
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L42" s="42">
+      <c r="L42" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M42" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="35">
+      <c r="M42" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="19">
+      <c r="P42" s="28"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S42" s="44"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="50">
+      <c r="S42" s="43"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="49">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W42" s="23">
+      <c r="W42" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X42" s="24">
+      <c r="X42" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="40"/>
+      <c r="Y42" s="39"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="141"/>
-      <c r="B43" s="26">
+      <c r="A43" s="192"/>
+      <c r="B43" s="25">
         <v>9093</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="200"/>
-      <c r="F43" s="201"/>
-      <c r="G43" s="106">
+      <c r="D43" s="146"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="104">
         <f>SUM(D43:F43)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="12">
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L43" s="32">
+      <c r="L43" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M43" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="35">
+      <c r="M43" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="19">
+      <c r="P43" s="28"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S43" s="44"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="46">
+      <c r="S43" s="43"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W43" s="23">
+      <c r="W43" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X43" s="24">
+      <c r="X43" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="56">
+      <c r="Y43" s="55">
         <f>SUM(W41:W46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="141"/>
-      <c r="B44" s="26">
+      <c r="A44" s="192"/>
+      <c r="B44" s="25">
         <v>9194</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="199"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="201"/>
-      <c r="G44" s="106">
+      <c r="D44" s="146"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="104">
         <f>SUM(D44:F44)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="12">
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L44" s="42">
+      <c r="L44" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M44" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="35">
+      <c r="M44" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="19">
+      <c r="P44" s="28"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S44" s="44"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="50">
+      <c r="S44" s="43"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="49">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W44" s="23">
+      <c r="W44" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X44" s="24">
+      <c r="X44" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="58">
+      <c r="Y44" s="56">
         <f>SUM(X41:X46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A45" s="141"/>
-      <c r="B45" s="26">
+      <c r="A45" s="192"/>
+      <c r="B45" s="25">
         <v>9195</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="199"/>
-      <c r="E45" s="200"/>
-      <c r="F45" s="201"/>
-      <c r="G45" s="106">
+      <c r="D45" s="146"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="104">
         <f t="shared" ref="G45:G46" si="11">SUM(D45:F45)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="12">
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L45" s="32"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="19">
+      <c r="L45" s="31"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S45" s="44"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="46">
+      <c r="S45" s="43"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W45" s="23">
+      <c r="W45" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X45" s="24">
+      <c r="X45" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y45" s="107"/>
+      <c r="Y45" s="105"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" s="142"/>
-      <c r="B46" s="61">
+      <c r="A46" s="193"/>
+      <c r="B46" s="59">
         <v>9500</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="199"/>
-      <c r="E46" s="200"/>
-      <c r="F46" s="201"/>
-      <c r="G46" s="106">
+      <c r="D46" s="146"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H46" s="71"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="12">
+      <c r="H46" s="69"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="199">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L46" s="93"/>
-      <c r="M46" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="69"/>
-      <c r="O46" s="111">
+      <c r="L46" s="91"/>
+      <c r="M46" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="67"/>
+      <c r="O46" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="19">
+      <c r="P46" s="69"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S46" s="73"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="87">
+      <c r="S46" s="71"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W46" s="23">
+      <c r="W46" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X46" s="24">
+      <c r="X46" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="76"/>
+      <c r="Y46" s="74"/>
     </row>
     <row r="47" spans="1:25" ht="5.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="112"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="112"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="113"/>
-      <c r="Q47" s="113"/>
-      <c r="R47" s="115"/>
-      <c r="V47" s="116"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="200"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="112"/>
+      <c r="V47" s="113"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A48" s="143" t="s">
+      <c r="A48" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="144"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="144"/>
-      <c r="L48" s="144"/>
-      <c r="M48" s="144"/>
-      <c r="N48" s="144"/>
-      <c r="O48" s="144"/>
-      <c r="P48" s="144"/>
-      <c r="Q48" s="144"/>
-      <c r="R48" s="144"/>
-      <c r="S48" s="144"/>
-      <c r="T48" s="144"/>
-      <c r="U48" s="144"/>
-      <c r="V48" s="145"/>
-      <c r="W48" s="118">
+      <c r="B48" s="195"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="195"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="195"/>
+      <c r="H48" s="195"/>
+      <c r="I48" s="195"/>
+      <c r="J48" s="195"/>
+      <c r="K48" s="195"/>
+      <c r="L48" s="195"/>
+      <c r="M48" s="195"/>
+      <c r="N48" s="195"/>
+      <c r="O48" s="195"/>
+      <c r="P48" s="195"/>
+      <c r="Q48" s="195"/>
+      <c r="R48" s="195"/>
+      <c r="S48" s="195"/>
+      <c r="T48" s="195"/>
+      <c r="U48" s="195"/>
+      <c r="V48" s="196"/>
+      <c r="W48" s="115">
         <f>SUM(W9:W46)</f>
         <v>0</v>
       </c>
-      <c r="X48" s="119"/>
-      <c r="Y48" s="120" t="s">
+      <c r="X48" s="116"/>
+      <c r="Y48" s="117" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="121"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="122"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="121"/>
-      <c r="R49" s="123"/>
-      <c r="S49" s="123"/>
-      <c r="T49" s="123"/>
-      <c r="U49" s="123"/>
-      <c r="V49" s="123"/>
-      <c r="W49" s="123"/>
-    </row>
-    <row r="50" spans="1:25" s="117" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="124"/>
+      <c r="A49" s="118"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="202"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="118"/>
+      <c r="N49" s="118"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="118"/>
+      <c r="R49" s="119"/>
+      <c r="S49" s="119"/>
+      <c r="T49" s="119"/>
+      <c r="U49" s="119"/>
+      <c r="V49" s="119"/>
+      <c r="W49" s="119"/>
+    </row>
+    <row r="50" spans="1:25" s="114" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="120"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
-      <c r="K50" s="125"/>
+      <c r="K50" s="201"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -4981,33 +4860,33 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50" s="146" t="s">
+      <c r="S50" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="T50" s="147"/>
-      <c r="U50" s="147"/>
-      <c r="V50" s="147"/>
-      <c r="W50" s="126">
+      <c r="T50" s="198"/>
+      <c r="U50" s="198"/>
+      <c r="V50" s="198"/>
+      <c r="W50" s="122">
         <f>W9+W10</f>
         <v>0</v>
       </c>
-      <c r="X50" s="127"/>
-      <c r="Y50" s="148" t="s">
+      <c r="X50" s="123"/>
+      <c r="Y50" s="185" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="117" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" s="114" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51"/>
-      <c r="B51" s="128"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="149"/>
-      <c r="K51" s="149"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="186"/>
+      <c r="D51" s="186"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="H51" s="186"/>
+      <c r="I51" s="186"/>
+      <c r="J51" s="186"/>
+      <c r="K51" s="186"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -5015,31 +4894,31 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" s="150" t="s">
+      <c r="S51" s="187" t="s">
         <v>83</v>
       </c>
-      <c r="T51" s="151"/>
-      <c r="U51" s="151"/>
-      <c r="V51" s="151"/>
-      <c r="W51" s="129">
+      <c r="T51" s="188"/>
+      <c r="U51" s="188"/>
+      <c r="V51" s="188"/>
+      <c r="W51" s="125">
         <f>W18+W22+W23+W24+W27+W28+W31+W33+W36+W37+W38</f>
         <v>0</v>
       </c>
-      <c r="X51" s="130"/>
-      <c r="Y51" s="148"/>
-    </row>
-    <row r="52" spans="1:25" s="117" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="131"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="149"/>
-      <c r="E52" s="149"/>
-      <c r="F52" s="149"/>
-      <c r="G52" s="149"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="149"/>
-      <c r="K52" s="149"/>
+      <c r="X51" s="126"/>
+      <c r="Y51" s="185"/>
+    </row>
+    <row r="52" spans="1:25" s="114" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="127"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
+      <c r="H52" s="186"/>
+      <c r="I52" s="186"/>
+      <c r="J52" s="186"/>
+      <c r="K52" s="186"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
@@ -5047,31 +4926,31 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
-      <c r="S52" s="150" t="s">
+      <c r="S52" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="T52" s="151"/>
-      <c r="U52" s="151"/>
-      <c r="V52" s="151"/>
-      <c r="W52" s="129">
+      <c r="T52" s="188"/>
+      <c r="U52" s="188"/>
+      <c r="V52" s="188"/>
+      <c r="W52" s="125">
         <f>W11+W12+W13+W14+W15+W16+W17+W19+W20+W21+W25+W26+W29+W30+W32+W34+W35+W39+W40</f>
         <v>0</v>
       </c>
-      <c r="X52" s="130"/>
-      <c r="Y52" s="148"/>
-    </row>
-    <row r="53" spans="1:25" s="117" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="131"/>
-      <c r="B53" s="128"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="149"/>
+      <c r="X52" s="126"/>
+      <c r="Y52" s="185"/>
+    </row>
+    <row r="53" spans="1:25" s="114" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="127"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
+      <c r="H53" s="186"/>
+      <c r="I53" s="186"/>
+      <c r="J53" s="186"/>
+      <c r="K53" s="186"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
@@ -5079,26 +4958,38 @@
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
-      <c r="S53" s="137" t="s">
+      <c r="S53" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="T53" s="138"/>
-      <c r="U53" s="138"/>
-      <c r="V53" s="138"/>
-      <c r="W53" s="132">
+      <c r="T53" s="190"/>
+      <c r="U53" s="190"/>
+      <c r="V53" s="190"/>
+      <c r="W53" s="128">
         <f>W41+W42+W43+W44+W45+W46</f>
         <v>0</v>
       </c>
-      <c r="X53" s="133"/>
-      <c r="Y53" s="148"/>
+      <c r="X53" s="129"/>
+      <c r="Y53" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A48:V48"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Y50:Y53"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="P6:Q7"/>
     <mergeCell ref="R6:R8"/>
@@ -5113,32 +5004,20 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="H6:J7"/>
-    <mergeCell ref="K6:K8"/>
     <mergeCell ref="L6:O7"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="Y50:Y53"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="S52:V52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A48:V48"/>
-    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:N46">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:F46">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>PERFORMANCE-BASED CONTRACT FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS IN SARAWAK</t>
   </si>
   <si>
     <t>ANNUAL WORK PROGRAMME AND BUDGET (DESIRED BUDGET)</t>
-  </si>
-  <si>
-    <t>Revision cumulatively calculated for RMU</t>
-  </si>
-  <si>
-    <t>Date User to enter</t>
   </si>
   <si>
     <t>REVISION:</t>
@@ -447,7 +441,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,12 +457,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,7 +1238,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1261,9 +1249,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,22 +1288,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,13 +1342,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,13 +1363,13 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1396,7 +1381,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1462,13 +1447,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="43" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="43" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="41" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="41" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1504,7 +1489,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="42" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="42" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,7 +1525,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="49" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="49" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1586,7 +1571,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="10" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="20" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1597,7 +1582,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="22" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="20" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1611,16 +1595,12 @@
     </xf>
     <xf numFmtId="165" fontId="22" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="20" fillId="3" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1672,110 +1652,48 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1796,39 +1714,95 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2133,10 +2107,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2146,8 +2120,8 @@
     <col min="3" max="3" width="27.81640625" customWidth="1"/>
     <col min="4" max="6" width="7.26953125" customWidth="1"/>
     <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="10" width="4.7265625" style="114" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="121" customWidth="1"/>
+    <col min="8" max="10" width="4.7265625" style="113" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="149" customWidth="1"/>
     <col min="12" max="14" width="6.54296875" customWidth="1"/>
     <col min="15" max="15" width="8.26953125" customWidth="1"/>
     <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
@@ -2156,68 +2130,68 @@
     <col min="19" max="22" width="10.26953125" customWidth="1"/>
     <col min="23" max="23" width="12.7265625" customWidth="1"/>
     <col min="24" max="24" width="6.81640625" customWidth="1"/>
-    <col min="25" max="25" width="13.453125" style="114" customWidth="1"/>
+    <col min="25" max="25" width="13.453125" style="113" customWidth="1"/>
     <col min="26" max="26" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
+      <c r="C1" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-    </row>
-    <row r="3" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2228,2631 +2202,2665 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="196"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="152" t="s">
+      <c r="U3" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="152"/>
-      <c r="W3" s="153" t="s">
+      <c r="V3" s="129">
+        <v>0</v>
+      </c>
+      <c r="W3" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="155"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="131" t="s">
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+    </row>
+    <row r="4" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="132">
-        <v>0</v>
-      </c>
-      <c r="W4" s="131" t="s">
+      <c r="B4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="156"/>
-    </row>
-    <row r="5" spans="1:25" s="130" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="181" t="s">
+      <c r="C4" s="160"/>
+      <c r="D4" s="160" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="173" t="s">
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173" t="s">
+      <c r="L4" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173" t="s">
+      <c r="M4" s="160"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="Q4" s="173"/>
+      <c r="R4" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="173"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="160" t="s">
+      <c r="S4" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="160" t="s">
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="162" t="s">
+      <c r="X4" s="181"/>
+      <c r="Y4" s="182"/>
+    </row>
+    <row r="5" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="192"/>
+      <c r="B5" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="168" t="s">
+      <c r="C5" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="169"/>
-      <c r="Y6" s="170"/>
-    </row>
-    <row r="7" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="181"/>
-      <c r="B7" s="171" t="s">
+      <c r="D5" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="E5" s="186"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="174" t="s">
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="192"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="177"/>
+      <c r="T5" s="178"/>
+      <c r="U5" s="178"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177" t="s">
+      <c r="X5" s="191"/>
+      <c r="Y5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="165"/>
-      <c r="T7" s="166"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="179" t="s">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="192"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="5" t="s">
+      <c r="E6" s="131" t="s">
         <v>20</v>
       </c>
+      <c r="F6" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="189"/>
+      <c r="H6" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="146"/>
+      <c r="L6" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="172"/>
+      <c r="S6" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="141" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="167" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1011</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="142"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="145">
+        <f>SUM(D7:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="147">
+        <f>IF(G7,O7/G7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <f>H7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <f>E7*I7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <f>F7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <f>SUM(L7:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17">
+        <f>IF(P7,O7/P7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="20">
+        <f>SUM(S7:U7)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="21">
+        <f>R7*V7</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="22">
+        <f>SUM(IF($W$46,W7/$W$46,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="181"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="134" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="178"/>
-      <c r="H8" s="134" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="136" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="134" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="160"/>
-      <c r="S8" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="141" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="141" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="142" t="s">
-        <v>30</v>
-      </c>
-      <c r="W8" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="X8" s="144" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="145" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="182" t="s">
+      <c r="A8" s="151"/>
+      <c r="B8" s="24">
+        <v>1012</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7">
-        <v>1011</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D8" s="142"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="26">
+        <f>SUM(D8:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="147">
+        <f t="shared" ref="K8:K44" si="0">IF(G8,O8/G8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="30">
+        <f t="shared" ref="L8:L42" si="1">H8*D8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="31">
+        <f t="shared" ref="M8:N44" si="2">E8*I8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="33">
+        <f t="shared" ref="O8:O44" si="3">SUM(L8:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="17">
+        <f t="shared" ref="R8:R44" si="4">IF(P8,O8/P8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="35"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="37">
+        <f>SUM(S8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="21">
+        <f>R8*V8</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="22">
+        <f t="shared" ref="X8:X44" si="5">SUM(IF($W$46,W8/$W$46,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="38"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="151"/>
+      <c r="B9" s="24">
+        <v>3013</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149">
-        <f>SUM(D9:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="199">
-        <f>IF(G9,O9/G9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <f>H9*D9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <f>E9*I9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <f>F9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="15">
-        <f>SUM(L9:N9)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18">
-        <f>IF(P9,O9/P9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="21">
-        <f>SUM(S9:U9)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="22">
+      <c r="D9" s="142"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="39">
+        <f t="shared" ref="G9:G20" si="6">SUM(D9:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="41"/>
+      <c r="O9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="42"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="44">
+        <f t="shared" ref="V9:V44" si="7">SUM(S9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="21">
         <f>R9*V9</f>
         <v>0</v>
       </c>
-      <c r="X9" s="23">
-        <f>SUM(IF($W$48,W9/$W$48,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="24"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="183"/>
-      <c r="B10" s="25">
-        <v>1012</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="X9" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="38"/>
+    </row>
+    <row r="10" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="151"/>
+      <c r="B10" s="24">
+        <v>3014</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="27">
+      <c r="D10" s="142"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="26">
         <f>SUM(D10:F10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="199">
-        <f t="shared" ref="K10:K46" si="0">IF(G10,O10/G10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="31">
-        <f t="shared" ref="L10:L44" si="1">H10*D10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="32">
-        <f t="shared" ref="M10:N46" si="2">E10*I10</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="34">
-        <f t="shared" ref="O10:O46" si="3">SUM(L10:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="18">
-        <f t="shared" ref="R10:R46" si="4">IF(P10,O10/P10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="36"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="38">
-        <f>SUM(S10:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="22">
-        <f>R10*V10</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="23">
-        <f t="shared" ref="X10:X46" si="5">SUM(IF($W$48,W10/$W$48,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="39"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="42"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="21">
+        <f t="shared" ref="W10:W44" si="8">R10*V10</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="49"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="183"/>
-      <c r="B11" s="25">
-        <v>3013</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="A11" s="151"/>
+      <c r="B11" s="24">
+        <v>3015</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="40">
-        <f t="shared" ref="G11:G22" si="6">SUM(D11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="199">
+      <c r="D11" s="142"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="26">
+        <f>SUM(D11:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="34">
+      <c r="M11" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="18">
+      <c r="P11" s="27"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S11" s="43"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="45">
-        <f t="shared" ref="V11:V46" si="7">SUM(S11:U11)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="22">
-        <f>R11*V11</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="23">
+      <c r="S11" s="42"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="39"/>
-    </row>
-    <row r="12" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="183"/>
-      <c r="B12" s="25">
-        <v>3014</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="Y11" s="54">
+        <f>SUM(W7:W15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="151"/>
+      <c r="B12" s="24">
+        <v>3016</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="27">
+      <c r="D12" s="142"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="39">
         <f>SUM(D12:F12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="199">
+      <c r="H12" s="50"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="34">
+      <c r="L12" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="18">
+      <c r="P12" s="45"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S12" s="43"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="49">
+      <c r="S12" s="42"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="22">
-        <f t="shared" ref="W12:W46" si="8">R12*V12</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="23">
+      <c r="W12" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="50"/>
+      <c r="Y12" s="55">
+        <f>SUM(X7:X15)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="183"/>
-      <c r="B13" s="25">
-        <v>3015</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="151"/>
+      <c r="B13" s="24">
+        <v>3017</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="27">
+      <c r="D13" s="142"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="39">
         <f>SUM(D13:F13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="199">
+      <c r="H13" s="50"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34">
+      <c r="M13" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="32"/>
+      <c r="O13" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="18">
+      <c r="P13" s="27"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S13" s="43"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="38">
+      <c r="S13" s="42"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W13" s="22">
+      <c r="W13" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X13" s="23">
+      <c r="X13" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="55">
-        <f>SUM(W9:W17)</f>
-        <v>0</v>
-      </c>
+      <c r="Y13" s="38"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="183"/>
-      <c r="B14" s="25">
-        <v>3016</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="A14" s="151"/>
+      <c r="B14" s="24">
+        <v>3018</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="146"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="40">
-        <f>SUM(D14:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="199">
+      <c r="D14" s="142"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34">
+      <c r="M14" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="18">
+      <c r="P14" s="45"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S14" s="43"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="45">
+      <c r="S14" s="42"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X14" s="23">
+      <c r="X14" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="56">
-        <f>SUM(X9:X17)</f>
-        <v>0</v>
-      </c>
+      <c r="Y14" s="38"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="183"/>
-      <c r="B15" s="25">
-        <v>3017</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="151"/>
+      <c r="B15" s="58">
+        <v>3019</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="40">
-        <f>SUM(D15:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="199">
+      <c r="D15" s="142"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34">
+      <c r="M15" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="18">
+      <c r="P15" s="68"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="43"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="38">
+      <c r="S15" s="70"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W15" s="22">
+      <c r="W15" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X15" s="23">
+      <c r="X15" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="39"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="183"/>
-      <c r="B16" s="25">
-        <v>3018</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="Y15" s="73"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="27">
+      <c r="B16" s="74">
+        <v>1021</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="142"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="199">
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="34">
+      <c r="M16" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="76">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="18">
+      <c r="P16" s="45"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="45">
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W16" s="22">
+      <c r="W16" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X16" s="23">
+      <c r="X16" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="39"/>
+      <c r="Y16" s="23"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="183"/>
-      <c r="B17" s="59">
-        <v>3019</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="61">
+      <c r="A17" s="151"/>
+      <c r="B17" s="24">
+        <v>3022</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="142"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="199">
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="65">
+      <c r="L17" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="68">
+      <c r="M17" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="18">
+      <c r="P17" s="27"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S17" s="71"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="73">
+      <c r="S17" s="42"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W17" s="22">
+      <c r="W17" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X17" s="23">
+      <c r="X17" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="74"/>
-    </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="182" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="75">
-        <v>1021</v>
-      </c>
-      <c r="C18" s="76" t="s">
+      <c r="Y17" s="54">
+        <f>SUM(W16:W19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18" s="151"/>
+      <c r="B18" s="24">
+        <v>3023</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="27">
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="199">
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="40"/>
+      <c r="M18" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="42"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="55">
+        <f>SUM(X16:X19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="168"/>
+      <c r="B19" s="58">
+        <v>3024</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="142"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="77">
+      <c r="M19" s="81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="18">
+      <c r="P19" s="78"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S18" s="36"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="21">
+      <c r="S19" s="70"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W18" s="22">
+      <c r="W19" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X18" s="23">
+      <c r="X19" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="24"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="183"/>
-      <c r="B19" s="25">
-        <v>3022</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="27">
+      <c r="Y19" s="73"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20" s="169" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1041</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="199">
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L20" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="34">
+      <c r="M20" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="18">
+      <c r="P20" s="27"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S19" s="43"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="45">
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W19" s="22">
+      <c r="W20" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X19" s="23">
+      <c r="X20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="55">
-        <f>SUM(W18:W21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="183"/>
-      <c r="B20" s="25">
-        <v>3023</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="199">
+      <c r="Y20" s="23"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21" s="170"/>
+      <c r="B21" s="24">
+        <v>1042</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="142"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="87">
+        <f>SUM(D21:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="34">
+      <c r="L21" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="18">
+      <c r="P21" s="27"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="45">
+      <c r="S21" s="42"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W20" s="22">
+      <c r="W21" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X20" s="23">
+      <c r="X21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="56">
-        <f>SUM(X18:X21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="184"/>
-      <c r="B21" s="59">
-        <v>3024</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="61">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="199">
+      <c r="Y21" s="38"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" s="170"/>
+      <c r="B22" s="24">
+        <v>1043</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="89">
+        <f t="shared" ref="G22:G32" si="9">SUM(D22:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="65">
+      <c r="L22" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="68">
+      <c r="M22" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="42"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="54">
+        <f>SUM(W20:W24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" s="170"/>
+      <c r="B23" s="24">
+        <v>4044</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="18">
+      <c r="P23" s="27"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S21" s="71"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="85">
+      <c r="S23" s="42"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W21" s="22">
+      <c r="W23" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X21" s="23">
+      <c r="X23" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="74"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="157" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1041</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="146"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="199">
+      <c r="Y23" s="55">
+        <f>SUM(X20:X24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="170"/>
+      <c r="B24" s="58">
+        <v>4045</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="86">
+      <c r="L24" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="15">
+      <c r="M24" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="18">
+      <c r="P24" s="45"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S22" s="19"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="21">
+      <c r="S24" s="70"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W22" s="22">
+      <c r="W24" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X22" s="23">
+      <c r="X24" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="24"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="158"/>
-      <c r="B23" s="25">
-        <v>1042</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="146"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="88">
-        <f>SUM(D23:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="199">
+      <c r="Y24" s="73"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25" s="169" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="74">
+        <v>1031</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="142"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="53">
+      <c r="L25" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="34">
+      <c r="M25" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="18">
+      <c r="P25" s="15"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="43"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="45">
+      <c r="S25" s="18"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W23" s="22">
+      <c r="W25" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X23" s="23">
+      <c r="X25" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="39"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="158"/>
-      <c r="B24" s="25">
-        <v>1043</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="90">
-        <f t="shared" ref="G24:G34" si="9">SUM(D24:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="199">
+      <c r="Y25" s="23"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26" s="170"/>
+      <c r="B26" s="24">
+        <v>1032</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="87">
+        <f>SUM(D26:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="53">
+      <c r="L26" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="18">
+      <c r="M26" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S24" s="43"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="73">
+      <c r="S26" s="42"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W24" s="22">
+      <c r="W26" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X24" s="23">
+      <c r="X26" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="55">
-        <f>SUM(W22:W26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="158"/>
-      <c r="B25" s="25">
-        <v>4044</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="90">
+      <c r="Y26" s="54">
+        <f>SUM(W25:W28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A27" s="170"/>
+      <c r="B27" s="24">
+        <v>4033</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="142"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="87">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="199">
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="53">
+      <c r="L27" s="52"/>
+      <c r="M27" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="32"/>
+      <c r="O27" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="42"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="55">
+        <f>SUM(X25:X28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28" s="170"/>
+      <c r="B28" s="58">
+        <v>4034</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="142"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="34">
+      <c r="M28" s="81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="18">
+      <c r="P28" s="27"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S25" s="43"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="49">
+      <c r="S28" s="70"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W28" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X25" s="23">
+      <c r="X28" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="56">
-        <f>SUM(X22:X26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="158"/>
-      <c r="B26" s="59">
-        <v>4045</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="61">
+      <c r="Y28" s="73"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29" s="169" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1051</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="142"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="94">
+        <f>SUM(D29:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="35"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="54">
+        <f>SUM(W29:W30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30" s="170"/>
+      <c r="B30" s="58">
+        <v>6052</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="142"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="97">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="199">
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="91">
+      <c r="L30" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="68">
+      <c r="M30" s="81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="18">
+      <c r="P30" s="27"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S26" s="71"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="85">
+      <c r="S30" s="70"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W26" s="22">
+      <c r="W30" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X26" s="23">
+      <c r="X30" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="74"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="157" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="75">
-        <v>1031</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="92">
+      <c r="Y30" s="55">
+        <f>SUM(X29:X30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31" s="169" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1061</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="142"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="94">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="199">
+      <c r="H31" s="15"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="86">
+      <c r="L31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15">
+      <c r="M31" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="18">
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S27" s="19"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="21">
+      <c r="S31" s="35"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W27" s="22">
+      <c r="W31" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X27" s="23">
+      <c r="X31" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="24"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="158"/>
-      <c r="B28" s="25">
-        <v>1032</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="146"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="88">
-        <f>SUM(D28:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="199">
+      <c r="Y31" s="23"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32" s="170"/>
+      <c r="B32" s="24">
+        <v>6062</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="142"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="53">
+      <c r="L32" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="34">
+      <c r="M32" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="33"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="42"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="54">
+        <f>SUM(W31:W33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33" s="171"/>
+      <c r="B33" s="58">
+        <v>6063</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="142"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="98">
+        <f t="shared" ref="G33:G38" si="10">SUM(D33:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="18">
+      <c r="P33" s="45"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S28" s="43"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="45">
+      <c r="S33" s="70"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W28" s="22">
+      <c r="W33" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X28" s="23">
+      <c r="X33" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="55">
-        <f>SUM(W27:W30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="158"/>
-      <c r="B29" s="25">
-        <v>4033</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="146"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="88">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="199">
+      <c r="Y33" s="55">
+        <f>SUM(X31:X33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="74">
+        <v>1071</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="142"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="53"/>
-      <c r="M29" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="33"/>
-      <c r="O29" s="34">
+      <c r="L34" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="18">
+      <c r="P34" s="8"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S29" s="43"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="45">
+      <c r="S34" s="35"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W29" s="22">
+      <c r="W34" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X29" s="23">
+      <c r="X34" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="56">
-        <f>SUM(X27:X30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="158"/>
-      <c r="B30" s="59">
-        <v>4034</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="146"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="88">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="199">
+      <c r="Y34" s="23"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35" s="151"/>
+      <c r="B35" s="24">
+        <v>1072</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="142"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="91">
+      <c r="L35" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="68">
+      <c r="M35" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="18">
+      <c r="P35" s="27"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S30" s="71"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="85">
+      <c r="S35" s="42"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W30" s="22">
+      <c r="W35" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X30" s="23">
+      <c r="X35" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="74"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="157" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1051</v>
-      </c>
-      <c r="C31" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="95">
-        <f>SUM(D31:F31)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="199">
+      <c r="Y35" s="54">
+        <f>SUM(W34:W38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36" s="151"/>
+      <c r="B36" s="24">
+        <v>1073</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="142"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="102">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L36" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="96">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="15">
+      <c r="M36" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18">
+      <c r="P36" s="27"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S31" s="36"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="97">
+      <c r="S36" s="42"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W31" s="22">
+      <c r="W36" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X31" s="23">
+      <c r="X36" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="55">
-        <f>SUM(W31:W32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="158"/>
-      <c r="B32" s="59">
-        <v>6052</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="98">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="199">
+      <c r="Y36" s="55">
+        <f>SUM(X34:X38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="151"/>
+      <c r="B37" s="24">
+        <v>7074</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="142"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="65">
+      <c r="L37" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="68">
+      <c r="M37" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="18">
+      <c r="P37" s="27"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S32" s="71"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="73">
+      <c r="S37" s="42"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W32" s="22">
+      <c r="W37" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X32" s="23">
+      <c r="X37" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="56">
-        <f>SUM(X31:X32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="157" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1061</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="146"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="95">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="199">
+      <c r="Y37" s="104"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" s="151"/>
+      <c r="B38" s="58">
+        <v>7075</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="142"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="105">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="68"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L38" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="15">
+      <c r="M38" s="81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="18">
+      <c r="P38" s="68"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S33" s="36"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="97">
+      <c r="S38" s="70"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W33" s="22">
+      <c r="W38" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X33" s="23">
+      <c r="X38" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="24"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="158"/>
-      <c r="B34" s="25">
-        <v>6062</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="146"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="95">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="199">
+      <c r="Y38" s="73"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="6">
+        <v>9091</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="142"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="107">
+        <f>SUM(D39:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L39" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="34"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="18">
+      <c r="M39" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S34" s="43"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="49">
+      <c r="S39" s="35"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W34" s="22">
+      <c r="W39" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X34" s="23">
+      <c r="X39" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="55">
-        <f>SUM(W33:W35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="159"/>
-      <c r="B35" s="59">
-        <v>6063</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="146"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="99">
-        <f t="shared" ref="G35:G40" si="10">SUM(D35:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="199">
+      <c r="Y39" s="23"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" s="153"/>
+      <c r="B40" s="24">
+        <v>9092</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="142"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="103">
+        <f>SUM(D40:F40)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="65">
+      <c r="L40" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="68">
+      <c r="M40" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="18">
+      <c r="P40" s="27"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S35" s="71"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="85">
+      <c r="S40" s="42"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W35" s="22">
+      <c r="W40" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X35" s="23">
+      <c r="X40" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="56">
-        <f>SUM(X33:X35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="183" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="75">
-        <v>1071</v>
-      </c>
-      <c r="C36" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="146"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="100">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="199">
+      <c r="Y40" s="38"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" s="153"/>
+      <c r="B41" s="24">
+        <v>9093</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="142"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="103">
+        <f>SUM(D41:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="86">
+      <c r="L41" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="15">
+      <c r="M41" s="81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="18">
+      <c r="P41" s="27"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S36" s="36"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="21">
+      <c r="S41" s="42"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W36" s="22">
+      <c r="W41" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X36" s="23">
+      <c r="X41" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="24"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="183"/>
-      <c r="B37" s="25">
-        <v>1072</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="146"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="102">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="199">
+      <c r="Y41" s="54">
+        <f>SUM(W39:W44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" s="153"/>
+      <c r="B42" s="24">
+        <v>9194</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="142"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="103">
+        <f>SUM(D42:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L42" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="34">
+      <c r="M42" s="81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="18">
+      <c r="P42" s="27"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S37" s="43"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="45">
+      <c r="S42" s="42"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W37" s="22">
+      <c r="W42" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X37" s="23">
+      <c r="X42" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="55">
-        <f>SUM(W36:W40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="183"/>
-      <c r="B38" s="25">
-        <v>1073</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="103">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="199">
+      <c r="Y42" s="55">
+        <f>SUM(X39:X44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" s="153"/>
+      <c r="B43" s="24">
+        <v>9195</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="142"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="103">
+        <f t="shared" ref="G43:G44" si="11">SUM(D43:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="34">
+      <c r="L43" s="30"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="42"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="104"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" s="154"/>
+      <c r="B44" s="58">
+        <v>9500</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="142"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="103">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="68"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="90"/>
+      <c r="M44" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="66"/>
+      <c r="O44" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="18">
+      <c r="P44" s="68"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S38" s="43"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="73">
+      <c r="S44" s="70"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W38" s="22">
+      <c r="W44" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X38" s="23">
+      <c r="X44" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="56">
-        <f>SUM(X36:X40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="183"/>
-      <c r="B39" s="25">
-        <v>7074</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="146"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="28"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="43"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="105"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="183"/>
-      <c r="B40" s="59">
-        <v>7075</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="106">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="69"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="71"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="74"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="191" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="7">
-        <v>9091</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="108">
-        <f>SUM(D41:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="46"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="36"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="97">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="24"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="192"/>
-      <c r="B42" s="25">
-        <v>9092</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="104">
-        <f>SUM(D42:F42)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="43"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="39"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="192"/>
-      <c r="B43" s="25">
-        <v>9093</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="146"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="104">
-        <f>SUM(D43:F43)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="43"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="55">
-        <f>SUM(W41:W46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="192"/>
-      <c r="B44" s="25">
-        <v>9194</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="104">
-        <f>SUM(D44:F44)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="43"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="56">
-        <f>SUM(X41:X46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A45" s="192"/>
-      <c r="B45" s="25">
-        <v>9195</v>
-      </c>
-      <c r="C45" s="26" t="s">
+      <c r="Y44" s="73"/>
+    </row>
+    <row r="45" spans="1:25" ht="5.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="109"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="148"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="109"/>
+      <c r="O45" s="109"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="111"/>
+      <c r="V45" s="112"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="146"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="104">
-        <f t="shared" ref="G45:G46" si="11">SUM(D45:F45)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="43"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="105"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" s="193"/>
-      <c r="B46" s="59">
-        <v>9500</v>
-      </c>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="156"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
+      <c r="N46" s="156"/>
+      <c r="O46" s="156"/>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="156"/>
+      <c r="R46" s="156"/>
+      <c r="S46" s="156"/>
+      <c r="T46" s="156"/>
+      <c r="U46" s="156"/>
+      <c r="V46" s="157"/>
+      <c r="W46" s="114">
+        <f>SUM(W7:W44)</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="115"/>
+      <c r="Y46" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="146"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="104">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="69"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="91"/>
-      <c r="M46" s="66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="67"/>
-      <c r="O46" s="109">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="69"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="71"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="85">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="74"/>
-    </row>
-    <row r="47" spans="1:25" ht="5.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="110"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="200"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="110"/>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="112"/>
-      <c r="V47" s="113"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A48" s="194" t="s">
+    </row>
+    <row r="47" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="117"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="150"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="117"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="118"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="118"/>
+      <c r="V47" s="118"/>
+      <c r="W47" s="118"/>
+    </row>
+    <row r="48" spans="1:25" s="113" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="119"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="K48" s="149"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="195"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="195"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="195"/>
-      <c r="H48" s="195"/>
-      <c r="I48" s="195"/>
-      <c r="J48" s="195"/>
-      <c r="K48" s="195"/>
-      <c r="L48" s="195"/>
-      <c r="M48" s="195"/>
-      <c r="N48" s="195"/>
-      <c r="O48" s="195"/>
-      <c r="P48" s="195"/>
-      <c r="Q48" s="195"/>
-      <c r="R48" s="195"/>
-      <c r="S48" s="195"/>
-      <c r="T48" s="195"/>
-      <c r="U48" s="195"/>
-      <c r="V48" s="196"/>
-      <c r="W48" s="115">
-        <f>SUM(W9:W46)</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="116"/>
-      <c r="Y48" s="117" t="s">
+      <c r="T48" s="159"/>
+      <c r="U48" s="159"/>
+      <c r="V48" s="159"/>
+      <c r="W48" s="120">
+        <f>W7+W8</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="121"/>
+      <c r="Y48" s="161" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="118"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="202"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="118"/>
-      <c r="R49" s="119"/>
-      <c r="S49" s="119"/>
-      <c r="T49" s="119"/>
-      <c r="U49" s="119"/>
-      <c r="V49" s="119"/>
-      <c r="W49" s="119"/>
-    </row>
-    <row r="50" spans="1:25" s="114" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="120"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="K50" s="201"/>
+    <row r="49" spans="1:25" s="113" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="162"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="162"/>
+      <c r="J49" s="162"/>
+      <c r="K49" s="162"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49" s="163" t="s">
+        <v>81</v>
+      </c>
+      <c r="T49" s="164"/>
+      <c r="U49" s="164"/>
+      <c r="V49" s="164"/>
+      <c r="W49" s="123">
+        <f>W16+W20+W21+W22+W25+W26+W29+W31+W34+W35+W36</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="124"/>
+      <c r="Y49" s="161"/>
+    </row>
+    <row r="50" spans="1:25" s="113" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="125"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="162"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -4860,33 +4868,31 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50" s="197" t="s">
-        <v>81</v>
-      </c>
-      <c r="T50" s="198"/>
-      <c r="U50" s="198"/>
-      <c r="V50" s="198"/>
-      <c r="W50" s="122">
-        <f>W9+W10</f>
-        <v>0</v>
-      </c>
-      <c r="X50" s="123"/>
-      <c r="Y50" s="185" t="s">
+      <c r="S50" s="163" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" s="114" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51"/>
-      <c r="B51" s="124"/>
-      <c r="C51" s="186"/>
-      <c r="D51" s="186"/>
-      <c r="E51" s="186"/>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
-      <c r="J51" s="186"/>
-      <c r="K51" s="186"/>
+      <c r="T50" s="164"/>
+      <c r="U50" s="164"/>
+      <c r="V50" s="164"/>
+      <c r="W50" s="123">
+        <f>W9+W10+W11+W12+W13+W14+W15+W17+W18+W19+W23+W24+W27+W28+W30+W32+W33+W37+W38</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="124"/>
+      <c r="Y50" s="161"/>
+    </row>
+    <row r="51" spans="1:25" s="113" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="125"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="162"/>
+      <c r="E51" s="162"/>
+      <c r="F51" s="162"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="162"/>
+      <c r="J51" s="162"/>
+      <c r="K51" s="162"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -4894,129 +4900,61 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" s="187" t="s">
+      <c r="S51" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="T51" s="188"/>
-      <c r="U51" s="188"/>
-      <c r="V51" s="188"/>
-      <c r="W51" s="125">
-        <f>W18+W22+W23+W24+W27+W28+W31+W33+W36+W37+W38</f>
-        <v>0</v>
-      </c>
-      <c r="X51" s="126"/>
-      <c r="Y51" s="185"/>
-    </row>
-    <row r="52" spans="1:25" s="114" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="127"/>
-      <c r="B52" s="124"/>
-      <c r="C52" s="186"/>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
-      <c r="H52" s="186"/>
-      <c r="I52" s="186"/>
-      <c r="J52" s="186"/>
-      <c r="K52" s="186"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52" s="187" t="s">
-        <v>84</v>
-      </c>
-      <c r="T52" s="188"/>
-      <c r="U52" s="188"/>
-      <c r="V52" s="188"/>
-      <c r="W52" s="125">
-        <f>W11+W12+W13+W14+W15+W16+W17+W19+W20+W21+W25+W26+W29+W30+W32+W34+W35+W39+W40</f>
-        <v>0</v>
-      </c>
-      <c r="X52" s="126"/>
-      <c r="Y52" s="185"/>
-    </row>
-    <row r="53" spans="1:25" s="114" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="127"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="186"/>
-      <c r="D53" s="186"/>
-      <c r="E53" s="186"/>
-      <c r="F53" s="186"/>
-      <c r="G53" s="186"/>
-      <c r="H53" s="186"/>
-      <c r="I53" s="186"/>
-      <c r="J53" s="186"/>
-      <c r="K53" s="186"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53" s="189" t="s">
-        <v>85</v>
-      </c>
-      <c r="T53" s="190"/>
-      <c r="U53" s="190"/>
-      <c r="V53" s="190"/>
-      <c r="W53" s="128">
-        <f>W41+W42+W43+W44+W45+W46</f>
-        <v>0</v>
-      </c>
-      <c r="X53" s="129"/>
-      <c r="Y53" s="185"/>
+      <c r="T51" s="166"/>
+      <c r="U51" s="166"/>
+      <c r="V51" s="166"/>
+      <c r="W51" s="126">
+        <f>W39+W40+W41+W42+W43+W44</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="127"/>
+      <c r="Y51" s="161"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A48:V48"/>
+  <mergeCells count="33">
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="Y48:Y51"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="C50:K50"/>
     <mergeCell ref="S50:V50"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Y50:Y53"/>
     <mergeCell ref="C51:K51"/>
     <mergeCell ref="S51:V51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="S52:V52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:V7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:J7"/>
-    <mergeCell ref="L6:O7"/>
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A46:V46"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:V5"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
-  <conditionalFormatting sqref="L9:N46">
+  <conditionalFormatting sqref="L7:N44">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:F46">
+  <conditionalFormatting sqref="D7:F44">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
@@ -485,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -890,19 +890,6 @@
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
         <color indexed="64"/>
       </left>
       <right/>
@@ -915,44 +902,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1238,7 +1188,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1327,19 +1277,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,19 +1286,10 @@
     <xf numFmtId="168" fontId="5" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="5" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,199 +1298,136 @@
     <xf numFmtId="168" fontId="5" fillId="5" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="43" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="41" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="19" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="42" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="49" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="19" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1582,19 +1448,19 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="20" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="20" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="20" fillId="3" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1604,19 +1470,19 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,7 +1503,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1645,7 +1511,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1665,34 +1531,58 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,13 +1595,40 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1741,7 +1658,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1750,59 +1667,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1813,7 +1679,28 @@
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2109,8 +1996,8 @@
   </sheetPr>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2120,8 +2007,8 @@
     <col min="3" max="3" width="27.81640625" customWidth="1"/>
     <col min="4" max="6" width="7.26953125" customWidth="1"/>
     <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="10" width="4.7265625" style="113" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="149" customWidth="1"/>
+    <col min="8" max="10" width="4.7265625" style="85" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="121" customWidth="1"/>
     <col min="12" max="14" width="6.54296875" customWidth="1"/>
     <col min="15" max="15" width="8.26953125" customWidth="1"/>
     <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
@@ -2130,66 +2017,66 @@
     <col min="19" max="22" width="10.26953125" customWidth="1"/>
     <col min="23" max="23" width="12.7265625" customWidth="1"/>
     <col min="24" max="24" width="6.81640625" customWidth="1"/>
-    <col min="25" max="25" width="13.453125" style="113" customWidth="1"/>
+    <col min="25" max="25" width="13.453125" style="85" customWidth="1"/>
     <col min="26" max="26" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
+      <c r="C1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
     </row>
     <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -2202,7 +2089,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="196"/>
+      <c r="K3" s="123"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -2212,171 +2099,171 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="128" t="s">
+      <c r="U3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="129">
-        <v>0</v>
-      </c>
-      <c r="W3" s="128" t="s">
+      <c r="V3" s="101">
+        <v>0</v>
+      </c>
+      <c r="W3" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
     </row>
     <row r="4" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160" t="s">
+      <c r="C4" s="132"/>
+      <c r="D4" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="146" t="s">
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146" t="s">
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="160" t="s">
+      <c r="L4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="160"/>
-      <c r="N4" s="192"/>
-      <c r="O4" s="192"/>
-      <c r="P4" s="172" t="s">
+      <c r="M4" s="132"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="172" t="s">
+      <c r="Q4" s="162"/>
+      <c r="R4" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="174" t="s">
+      <c r="S4" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="180" t="s">
+      <c r="T4" s="164"/>
+      <c r="U4" s="164"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="181"/>
-      <c r="Y4" s="182"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="129"/>
     </row>
     <row r="5" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="192"/>
-      <c r="B5" s="183" t="s">
+      <c r="A5" s="140"/>
+      <c r="B5" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188" t="s">
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="192"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="178"/>
-      <c r="U5" s="178"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="190" t="s">
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="191"/>
+      <c r="X5" s="139"/>
       <c r="Y5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A6" s="192"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="130" t="s">
+      <c r="A6" s="140"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="189"/>
-      <c r="H6" s="130" t="s">
+      <c r="G6" s="137"/>
+      <c r="H6" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="131" t="s">
+      <c r="I6" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="132" t="s">
+      <c r="J6" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="146"/>
-      <c r="L6" s="130" t="s">
+      <c r="K6" s="118"/>
+      <c r="L6" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="131" t="s">
+      <c r="M6" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="105" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="134" t="s">
+      <c r="P6" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="135" t="s">
+      <c r="Q6" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="172"/>
-      <c r="S6" s="136" t="s">
+      <c r="R6" s="161"/>
+      <c r="S6" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="137" t="s">
+      <c r="T6" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="137" t="s">
+      <c r="U6" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="138" t="s">
+      <c r="V6" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="139" t="s">
+      <c r="W6" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="140" t="s">
+      <c r="X6" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="141" t="s">
+      <c r="Y6" s="113" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="156" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="6">
@@ -2385,70 +2272,70 @@
       <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="145">
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117">
         <f>SUM(D7:F7)</f>
         <v>0</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="147">
-        <f>IF(G7,O7/G7,0)</f>
+      <c r="K7" s="119">
+        <f>ROUND(IF(G7,O7/G7,0),2)</f>
         <v>0</v>
       </c>
       <c r="L7" s="11">
-        <f>H7*D7</f>
+        <f>ROUND(H7*D7,2)</f>
         <v>0</v>
       </c>
       <c r="M7" s="12">
-        <f>E7*I7</f>
+        <f>ROUND(E7*I7,2)</f>
         <v>0</v>
       </c>
       <c r="N7" s="13">
-        <f>F7*J7</f>
+        <f>ROUND(F7*J7,2)</f>
         <v>0</v>
       </c>
       <c r="O7" s="14">
-        <f>SUM(L7:N7)</f>
+        <f>ROUND(SUM(L7:N7),2)</f>
         <v>0</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="17">
-        <f>IF(P7,O7/P7,0)</f>
+        <f>ROUND(IF(P7,O7/P7,0),2)</f>
         <v>0</v>
       </c>
       <c r="S7" s="18"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="20">
-        <f>SUM(S7:U7)</f>
+        <f>ROUND(SUM(S7:U7),2)</f>
         <v>0</v>
       </c>
       <c r="W7" s="21">
-        <f>R7*V7</f>
+        <f>ROUND(R7*V7,2)</f>
         <v>0</v>
       </c>
       <c r="X7" s="22">
-        <f>SUM(IF($W$46,W7/$W$46,0))</f>
+        <f>ROUND(SUM(IF($W$46,W7/$W$46,0)),2)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="151"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="24">
         <v>1012</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="144"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="26">
         <f>SUM(D8:F8)</f>
         <v>0</v>
@@ -2456,488 +2343,503 @@
       <c r="H8" s="27"/>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="147">
-        <f t="shared" ref="K8:K44" si="0">IF(G8,O8/G8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="30">
-        <f t="shared" ref="L8:L42" si="1">H8*D8</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="31">
-        <f t="shared" ref="M8:N44" si="2">E8*I8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="33">
-        <f t="shared" ref="O8:O44" si="3">SUM(L8:N8)</f>
+      <c r="K8" s="119">
+        <f t="shared" ref="K8:K44" si="0">ROUND(IF(G8,O8/G8,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" ref="L8:L44" si="1">ROUND(H8*D8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" ref="M8:M44" si="2">ROUND(E8*I8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" ref="N8:N44" si="3">ROUND(F8*J8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" ref="O8:O44" si="4">ROUND(SUM(L8:N8),2)</f>
         <v>0</v>
       </c>
       <c r="P8" s="27"/>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="17">
-        <f t="shared" ref="R8:R44" si="4">IF(P8,O8/P8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="37">
-        <f>SUM(S8:U8)</f>
+        <f t="shared" ref="R8:R44" si="5">ROUND(IF(P8,O8/P8,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="31"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="20">
+        <f t="shared" ref="V8:V44" si="6">ROUND(SUM(S8:U8),2)</f>
         <v>0</v>
       </c>
       <c r="W8" s="21">
-        <f>R8*V8</f>
+        <f t="shared" ref="W8:W44" si="7">ROUND(R8*V8,2)</f>
         <v>0</v>
       </c>
       <c r="X8" s="22">
-        <f t="shared" ref="X8:X44" si="5">SUM(IF($W$46,W8/$W$46,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="38"/>
+        <f t="shared" ref="X8:X44" si="8">ROUND(SUM(IF($W$46,W8/$W$46,0)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="33"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="151"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="24">
         <v>3013</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="39">
-        <f t="shared" ref="G9:G20" si="6">SUM(D9:F9)</f>
+      <c r="D9" s="114"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="34">
+        <f t="shared" ref="G9:G20" si="9">SUM(D9:F9)</f>
         <v>0</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="28"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="147">
+      <c r="K9" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="33">
+      <c r="N9" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O9" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P9" s="27"/>
-      <c r="Q9" s="34"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="44">
-        <f t="shared" ref="V9:V44" si="7">SUM(S9:U9)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="35"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="20">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W9" s="21">
-        <f>R9*V9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X9" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="38"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="33"/>
     </row>
     <row r="10" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="151"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="24">
         <v>3014</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="144"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="26">
         <f>SUM(D10:F10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="147">
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31">
+      <c r="L10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="33">
+      <c r="N10" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="34"/>
+      <c r="O10" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="30"/>
       <c r="R10" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="35"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W10" s="21">
-        <f t="shared" ref="W10:W44" si="8">R10*V10</f>
-        <v>0</v>
-      </c>
       <c r="X10" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="49"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="40"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="151"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="24">
         <v>3015</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="144"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
       <c r="G11" s="26">
         <f>SUM(D11:F11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="147">
+      <c r="J11" s="42"/>
+      <c r="K11" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33">
+      <c r="N11" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O11" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P11" s="27"/>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="42"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="35"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W11" s="21">
+      <c r="X11" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X11" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="54">
+      <c r="Y11" s="43">
         <f>SUM(W7:W15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="151"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="24">
         <v>3016</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="39">
+      <c r="D12" s="114"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="34">
         <f>SUM(D12:F12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="147">
+      <c r="J12" s="42"/>
+      <c r="K12" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="33">
+      <c r="N12" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="34"/>
+      <c r="O12" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="30"/>
       <c r="R12" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="42"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="35"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="21">
+      <c r="X12" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X12" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="55">
-        <f>SUM(X7:X15)</f>
+      <c r="Y12" s="44">
+        <f>ROUND(SUM(X7:X15),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="151"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="24">
         <v>3017</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="39">
+      <c r="D13" s="114"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="34">
         <f>SUM(D13:F13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="147">
+      <c r="J13" s="42"/>
+      <c r="K13" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="33">
+      <c r="N13" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O13" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P13" s="27"/>
-      <c r="Q13" s="34"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="42"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="35"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W13" s="21">
+      <c r="X13" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X13" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="38"/>
+      <c r="Y13" s="33"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="151"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="24">
         <v>3018</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
       <c r="G14" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="35"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="147">
+      <c r="W14" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="33"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="147"/>
+      <c r="B15" s="46">
+        <v>3019</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="114"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L15" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="56">
+      <c r="M15" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="33">
+      <c r="N15" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="17">
+      <c r="O15" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S14" s="42"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="44">
+      <c r="P15" s="52"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="54"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="21">
+      <c r="X15" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X14" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="38"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="151"/>
-      <c r="B15" s="58">
-        <v>3019</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="70"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="73"/>
+      <c r="Y15" s="56"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="74">
+      <c r="B16" s="57">
         <v>1021</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="147">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2950,224 +2852,227 @@
         <v>0</v>
       </c>
       <c r="N16" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="76">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="57"/>
+      <c r="O16" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="45"/>
       <c r="R16" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="31"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
       <c r="V16" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W16" s="21">
+      <c r="X16" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X16" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Y16" s="23"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="151"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="24">
         <v>3022</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="147">
+      <c r="J17" s="42"/>
+      <c r="K17" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="33">
+      <c r="N17" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O17" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P17" s="27"/>
-      <c r="Q17" s="34"/>
+      <c r="Q17" s="30"/>
       <c r="R17" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W17" s="21">
+      <c r="X17" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X17" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="54">
+      <c r="Y17" s="43">
         <f>SUM(W16:W19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="151"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="24">
         <v>3023</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="39">
-        <f t="shared" si="6"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="34">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
       <c r="J18" s="29"/>
-      <c r="K18" s="147">
+      <c r="K18" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="53">
+      <c r="L18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="35"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="44">
+        <f>ROUND(SUM(X16:X19),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="157"/>
+      <c r="B19" s="46">
+        <v>3024</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="33">
+      <c r="N19" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="17">
+      <c r="O19" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="44">
+      <c r="P19" s="59"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="54"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W18" s="21">
+      <c r="X19" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X18" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="55">
-        <f>SUM(X16:X19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="168"/>
-      <c r="B19" s="58">
-        <v>3024</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="81">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="70"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="73"/>
+      <c r="Y19" s="56"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="158" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="6">
@@ -3176,21 +3081,21 @@
       <c r="C20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="147">
+      <c r="K20" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="85">
+      <c r="L20" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3198,309 +3103,312 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="86">
-        <f t="shared" si="2"/>
+      <c r="N20" s="13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="27"/>
-      <c r="Q20" s="34"/>
+      <c r="Q20" s="30"/>
       <c r="R20" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S20" s="18"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="36"/>
+      <c r="U20" s="32"/>
       <c r="V20" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W20" s="21">
+      <c r="X20" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X20" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Y20" s="23"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="170"/>
+      <c r="A21" s="159"/>
       <c r="B21" s="24">
         <v>1042</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="87">
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="63">
         <f>SUM(D21:F21)</f>
         <v>0</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="147">
+      <c r="J21" s="64"/>
+      <c r="K21" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="52">
+      <c r="L21" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="33">
+      <c r="N21" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O21" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P21" s="27"/>
-      <c r="Q21" s="34"/>
+      <c r="Q21" s="30"/>
       <c r="R21" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="42"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="35"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W21" s="21">
+      <c r="X21" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X21" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="38"/>
+      <c r="Y21" s="33"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="170"/>
+      <c r="A22" s="159"/>
       <c r="B22" s="24">
         <v>1043</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="89">
-        <f t="shared" ref="G22:G32" si="9">SUM(D22:F22)</f>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="65">
+        <f t="shared" ref="G22:G32" si="10">SUM(D22:F22)</f>
         <v>0</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="147">
+      <c r="J22" s="64"/>
+      <c r="K22" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="52">
+      <c r="L22" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="53">
+      <c r="M22" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="33"/>
+      <c r="N22" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P22" s="27"/>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="30"/>
       <c r="R22" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="42"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="35"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W22" s="21">
+      <c r="X22" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X22" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="54">
+      <c r="Y22" s="43">
         <f>SUM(W20:W24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="170"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="24">
         <v>4044</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="89">
-        <f t="shared" si="9"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="65">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="147">
+      <c r="J23" s="64"/>
+      <c r="K23" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="52">
+      <c r="L23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="56">
+      <c r="M23" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="35"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="44">
+        <f>ROUND(SUM(X20:X24),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="159"/>
+      <c r="B24" s="46">
+        <v>4045</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="33">
+      <c r="N24" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="17">
+      <c r="O24" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="42"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="48">
+      <c r="P24" s="37"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="54"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W23" s="21">
+      <c r="X24" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X23" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="55">
-        <f>SUM(X20:X24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="170"/>
-      <c r="B24" s="58">
-        <v>4045</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="142"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="60">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="147">
+      <c r="Y24" s="56"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25" s="158" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="57">
+        <v>1031</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="70"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="73"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="169" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="74">
-        <v>1031</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="142"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="91">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="85">
+      <c r="L25" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3508,238 +3416,247 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="13"/>
+      <c r="N25" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S25" s="18"/>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W25" s="21">
+      <c r="X25" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X25" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Y25" s="23"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="170"/>
+      <c r="A26" s="159"/>
       <c r="B26" s="24">
         <v>1032</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="87">
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="63">
         <f>SUM(D26:F26)</f>
         <v>0</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="28"/>
       <c r="J26" s="29"/>
-      <c r="K26" s="147">
+      <c r="K26" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="33">
+      <c r="N26" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O26" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P26" s="27"/>
-      <c r="Q26" s="34"/>
+      <c r="Q26" s="30"/>
       <c r="R26" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="42"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="35"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W26" s="21">
+      <c r="X26" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X26" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="54">
+      <c r="Y26" s="43">
         <f>SUM(W25:W28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="170"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="24">
         <v>4033</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="142"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="87">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="147">
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53">
+      <c r="L27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33">
+      <c r="N27" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="57"/>
+      <c r="O27" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="45"/>
       <c r="R27" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="42"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="35"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W27" s="21">
+      <c r="X27" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X27" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="55">
-        <f>SUM(X25:X28)</f>
+      <c r="Y27" s="44">
+        <f>ROUND(SUM(X25:X28),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="170"/>
-      <c r="B28" s="58">
+      <c r="A28" s="159"/>
+      <c r="B28" s="46">
         <v>4034</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="142"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="87">
-        <f t="shared" si="9"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="63">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="28"/>
       <c r="J28" s="29"/>
-      <c r="K28" s="147">
+      <c r="K28" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="90">
+      <c r="L28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="81">
+      <c r="M28" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="67">
+      <c r="N28" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O28" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P28" s="27"/>
-      <c r="Q28" s="34"/>
+      <c r="Q28" s="30"/>
       <c r="R28" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="70"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="54"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W28" s="21">
+      <c r="X28" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X28" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="73"/>
+      <c r="Y28" s="56"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="169" t="s">
+      <c r="A29" s="158" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="6">
         <v>1051</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="142"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="94">
+      <c r="D29" s="114"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="69">
         <f>SUM(D29:F29)</f>
         <v>0</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="147">
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3747,110 +3664,110 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M29" s="95">
+      <c r="M29" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="86">
-        <f t="shared" si="2"/>
+      <c r="N29" s="13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29" s="15"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="35"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="31"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W29" s="21">
+      <c r="X29" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X29" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="54">
+      <c r="Y29" s="43">
         <f>SUM(W29:W30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="170"/>
-      <c r="B30" s="58">
+      <c r="A30" s="159"/>
+      <c r="B30" s="46">
         <v>6052</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="142"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="97">
-        <f t="shared" si="9"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="70">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
       <c r="J30" s="29"/>
-      <c r="K30" s="147">
+      <c r="K30" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="81">
+      <c r="M30" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="67">
+      <c r="N30" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O30" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P30" s="27"/>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="30"/>
       <c r="R30" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="70"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="54"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W30" s="21">
+      <c r="X30" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X30" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="55">
-        <f>SUM(X29:X30)</f>
+      <c r="Y30" s="44">
+        <f>ROUND(SUM(X29:X30),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="169" t="s">
+      <c r="A31" s="158" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="6">
@@ -3859,17 +3776,17 @@
       <c r="C31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="94">
-        <f t="shared" si="9"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="69">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="147">
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3881,187 +3798,190 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="86">
-        <f t="shared" si="2"/>
+      <c r="N31" s="13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="15"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="35"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="31"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W31" s="21">
+      <c r="X31" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X31" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Y31" s="23"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="170"/>
+      <c r="A32" s="159"/>
       <c r="B32" s="24">
         <v>6062</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="94">
-        <f t="shared" si="9"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="69">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="28"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="147">
+      <c r="K32" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="35"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="43">
+        <f>SUM(W31:W33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33" s="160"/>
+      <c r="B33" s="46">
+        <v>6063</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="114"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="71">
+        <f t="shared" ref="G33:G38" si="11">SUM(D33:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O32" s="33"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="17">
+      <c r="N33" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S32" s="42"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="48">
+      <c r="P33" s="37"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="54"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W32" s="21">
+      <c r="X33" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X32" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="54">
-        <f>SUM(W31:W33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="171"/>
-      <c r="B33" s="58">
-        <v>6063</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="98">
-        <f t="shared" ref="G33:G38" si="10">SUM(D33:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="70"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="55">
-        <f>SUM(X31:X33)</f>
+      <c r="Y33" s="44">
+        <f>ROUND(SUM(X31:X33),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="151" t="s">
+      <c r="A34" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="74">
+      <c r="B34" s="57">
         <v>1071</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="142"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="99">
-        <f t="shared" si="10"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="72">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="147">
+      <c r="K34" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="85">
+      <c r="L34" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4070,288 +3990,288 @@
         <v>0</v>
       </c>
       <c r="N34" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34" s="8"/>
-      <c r="Q34" s="100"/>
+      <c r="Q34" s="73"/>
       <c r="R34" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="35"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="31"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
       <c r="V34" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W34" s="21">
+      <c r="X34" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X34" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Y34" s="23"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="151"/>
+      <c r="A35" s="147"/>
       <c r="B35" s="24">
         <v>1072</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="142"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="101">
-        <f t="shared" si="10"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="74">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="147">
+      <c r="J35" s="64"/>
+      <c r="K35" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="53">
+      <c r="M35" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="33">
+      <c r="N35" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O35" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P35" s="27"/>
-      <c r="Q35" s="34"/>
+      <c r="Q35" s="30"/>
       <c r="R35" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="42"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="35"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W35" s="21">
+      <c r="X35" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X35" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="54">
+      <c r="Y35" s="43">
         <f>SUM(W34:W38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="151"/>
+      <c r="A36" s="147"/>
       <c r="B36" s="24">
         <v>1073</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="142"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="102">
-        <f t="shared" si="10"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="75">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="147">
+      <c r="J36" s="64"/>
+      <c r="K36" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="56">
+      <c r="M36" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="33">
+      <c r="N36" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O36" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P36" s="27"/>
-      <c r="Q36" s="34"/>
+      <c r="Q36" s="30"/>
       <c r="R36" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="42"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="35"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W36" s="21">
+      <c r="X36" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X36" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="55">
-        <f>SUM(X34:X38)</f>
+      <c r="Y36" s="44">
+        <f>ROUND(SUM(X34:X38),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="151"/>
+      <c r="A37" s="147"/>
       <c r="B37" s="24">
         <v>7074</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="142"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="103">
-        <f t="shared" si="10"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="76">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="147">
+      <c r="J37" s="64"/>
+      <c r="K37" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="53">
+      <c r="M37" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="32">
+      <c r="N37" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="35"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="77"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" s="147"/>
+      <c r="B38" s="46">
+        <v>7075</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="114"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="52"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O37" s="33">
+      <c r="N38" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="17">
+      <c r="O38" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S37" s="42"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="72">
+      <c r="P38" s="52"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="54"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W37" s="21">
+      <c r="X38" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X37" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="104"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="151"/>
-      <c r="B38" s="58">
-        <v>7075</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="142"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="105">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="68"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="81">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="70"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="73"/>
+      <c r="Y38" s="56"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="152" t="s">
+      <c r="A39" s="148" t="s">
         <v>70</v>
       </c>
       <c r="B39" s="6">
@@ -4360,21 +4280,21 @@
       <c r="C39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="142"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="107">
+      <c r="D39" s="114"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="80">
         <f>SUM(D39:F39)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="147">
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="85">
+      <c r="L39" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4383,418 +4303,436 @@
         <v>0</v>
       </c>
       <c r="N39" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O39" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="57"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="45"/>
       <c r="R39" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="35"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="31"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W39" s="21">
+      <c r="X39" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X39" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Y39" s="23"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="153"/>
+      <c r="A40" s="149"/>
       <c r="B40" s="24">
         <v>9092</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="103">
+      <c r="D40" s="114"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="76">
         <f>SUM(D40:F40)</f>
         <v>0</v>
       </c>
       <c r="H40" s="27"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="147">
+      <c r="J40" s="64"/>
+      <c r="K40" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="53">
+      <c r="M40" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="33">
+      <c r="N40" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O40" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P40" s="27"/>
-      <c r="Q40" s="34"/>
+      <c r="Q40" s="30"/>
       <c r="R40" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="42"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="35"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W40" s="21">
+      <c r="X40" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X40" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="38"/>
+      <c r="Y40" s="33"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="153"/>
+      <c r="A41" s="149"/>
       <c r="B41" s="24">
         <v>9093</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="142"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="103">
+      <c r="D41" s="114"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="76">
         <f>SUM(D41:F41)</f>
         <v>0</v>
       </c>
       <c r="H41" s="27"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="147">
+      <c r="J41" s="64"/>
+      <c r="K41" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M41" s="81">
+      <c r="M41" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N41" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="33">
+      <c r="N41" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O41" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P41" s="27"/>
-      <c r="Q41" s="34"/>
+      <c r="Q41" s="30"/>
       <c r="R41" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="42"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="35"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W41" s="21">
+      <c r="X41" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X41" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="54">
+      <c r="Y41" s="43">
         <f>SUM(W39:W44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="153"/>
+      <c r="A42" s="149"/>
       <c r="B42" s="24">
         <v>9194</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="142"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="103">
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="76">
         <f>SUM(D42:F42)</f>
         <v>0</v>
       </c>
       <c r="H42" s="27"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="147">
+      <c r="J42" s="64"/>
+      <c r="K42" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L42" s="40">
+      <c r="L42" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M42" s="81">
+      <c r="M42" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N42" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="33">
+      <c r="N42" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="O42" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P42" s="27"/>
-      <c r="Q42" s="34"/>
+      <c r="Q42" s="30"/>
       <c r="R42" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="42"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="35"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W42" s="21">
+      <c r="X42" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X42" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="55">
-        <f>SUM(X39:X44)</f>
+      <c r="Y42" s="44">
+        <f>ROUND(SUM(X39:X44),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="153"/>
+      <c r="A43" s="149"/>
       <c r="B43" s="24">
         <v>9195</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="142"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="103">
-        <f t="shared" ref="G43:G44" si="11">SUM(D43:F43)</f>
+      <c r="D43" s="114"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="76">
+        <f t="shared" ref="G43:G44" si="12">SUM(D43:F43)</f>
         <v>0</v>
       </c>
       <c r="H43" s="27"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="147">
+      <c r="J43" s="64"/>
+      <c r="K43" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L43" s="30"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="57"/>
+      <c r="L43" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="45"/>
       <c r="R43" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="35"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="77"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" s="150"/>
+      <c r="B44" s="46">
+        <v>9500</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="114"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S43" s="42"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="44">
+      <c r="P44" s="52"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="54"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W43" s="21">
+      <c r="X44" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X43" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="104"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="154"/>
-      <c r="B44" s="58">
-        <v>9500</v>
-      </c>
-      <c r="C44" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="142"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="68"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="147">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="90"/>
-      <c r="M44" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="66"/>
-      <c r="O44" s="108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="69"/>
-      <c r="R44" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="70"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="73"/>
+      <c r="Y44" s="56"/>
     </row>
     <row r="45" spans="1:25" ht="5.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="109"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="148"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="109"/>
-      <c r="O45" s="109"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="111"/>
-      <c r="V45" s="112"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="83"/>
+      <c r="V45" s="84"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" s="155" t="s">
+      <c r="A46" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="156"/>
-      <c r="K46" s="156"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
-      <c r="N46" s="156"/>
-      <c r="O46" s="156"/>
-      <c r="P46" s="156"/>
-      <c r="Q46" s="156"/>
-      <c r="R46" s="156"/>
-      <c r="S46" s="156"/>
-      <c r="T46" s="156"/>
-      <c r="U46" s="156"/>
-      <c r="V46" s="157"/>
-      <c r="W46" s="114">
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="152"/>
+      <c r="M46" s="152"/>
+      <c r="N46" s="152"/>
+      <c r="O46" s="152"/>
+      <c r="P46" s="152"/>
+      <c r="Q46" s="152"/>
+      <c r="R46" s="152"/>
+      <c r="S46" s="152"/>
+      <c r="T46" s="152"/>
+      <c r="U46" s="152"/>
+      <c r="V46" s="153"/>
+      <c r="W46" s="86">
         <f>SUM(W7:W44)</f>
         <v>0</v>
       </c>
-      <c r="X46" s="115"/>
-      <c r="Y46" s="116" t="s">
+      <c r="X46" s="87"/>
+      <c r="Y46" s="88" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="117"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
-      <c r="K47" s="150"/>
-      <c r="L47" s="117"/>
-      <c r="M47" s="117"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="117"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="118"/>
-      <c r="T47" s="118"/>
-      <c r="U47" s="118"/>
-      <c r="V47" s="118"/>
-      <c r="W47" s="118"/>
-    </row>
-    <row r="48" spans="1:25" s="113" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="119"/>
+      <c r="A47" s="89"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="90"/>
+      <c r="W47" s="90"/>
+    </row>
+    <row r="48" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="91"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-      <c r="K48" s="149"/>
+      <c r="K48" s="121"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -4802,33 +4740,33 @@
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
-      <c r="S48" s="158" t="s">
+      <c r="S48" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="T48" s="159"/>
-      <c r="U48" s="159"/>
-      <c r="V48" s="159"/>
-      <c r="W48" s="120">
-        <f>W7+W8</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="121"/>
-      <c r="Y48" s="161" t="s">
+      <c r="T48" s="155"/>
+      <c r="U48" s="155"/>
+      <c r="V48" s="155"/>
+      <c r="W48" s="92">
+        <f>ROUND(W7+W8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="93"/>
+      <c r="Y48" s="141" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="113" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="162"/>
-      <c r="D49" s="162"/>
-      <c r="E49" s="162"/>
-      <c r="F49" s="162"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="162"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="162"/>
-      <c r="K49" s="162"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="142"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="142"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -4836,31 +4774,31 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49" s="163" t="s">
+      <c r="S49" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="T49" s="164"/>
-      <c r="U49" s="164"/>
-      <c r="V49" s="164"/>
-      <c r="W49" s="123">
-        <f>W16+W20+W21+W22+W25+W26+W29+W31+W34+W35+W36</f>
-        <v>0</v>
-      </c>
-      <c r="X49" s="124"/>
-      <c r="Y49" s="161"/>
-    </row>
-    <row r="50" spans="1:25" s="113" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="125"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="162"/>
-      <c r="F50" s="162"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="162"/>
-      <c r="I50" s="162"/>
-      <c r="J50" s="162"/>
-      <c r="K50" s="162"/>
+      <c r="T49" s="144"/>
+      <c r="U49" s="144"/>
+      <c r="V49" s="144"/>
+      <c r="W49" s="95">
+        <f>ROUND(W16+W20+W21+W22+W25+W26+W29+W31+W34+W35+W36,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="96"/>
+      <c r="Y49" s="141"/>
+    </row>
+    <row r="50" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="97"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="142"/>
+      <c r="I50" s="142"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="142"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -4868,31 +4806,31 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50" s="163" t="s">
+      <c r="S50" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="T50" s="164"/>
-      <c r="U50" s="164"/>
-      <c r="V50" s="164"/>
-      <c r="W50" s="123">
-        <f>W9+W10+W11+W12+W13+W14+W15+W17+W18+W19+W23+W24+W27+W28+W30+W32+W33+W37+W38</f>
-        <v>0</v>
-      </c>
-      <c r="X50" s="124"/>
-      <c r="Y50" s="161"/>
-    </row>
-    <row r="51" spans="1:25" s="113" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="125"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
+      <c r="T50" s="144"/>
+      <c r="U50" s="144"/>
+      <c r="V50" s="144"/>
+      <c r="W50" s="95">
+        <f>ROUND(W9+W10+W11+W12+W13+W14+W15+W17+W18+W19+W23+W24+W27+W28+W30+W32+W33+W37+W38,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="96"/>
+      <c r="Y50" s="141"/>
+    </row>
+    <row r="51" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="97"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="142"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -4900,21 +4838,38 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" s="165" t="s">
+      <c r="S51" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="T51" s="166"/>
-      <c r="U51" s="166"/>
-      <c r="V51" s="166"/>
-      <c r="W51" s="126">
-        <f>W39+W40+W41+W42+W43+W44</f>
-        <v>0</v>
-      </c>
-      <c r="X51" s="127"/>
-      <c r="Y51" s="161"/>
+      <c r="T51" s="146"/>
+      <c r="U51" s="146"/>
+      <c r="V51" s="146"/>
+      <c r="W51" s="98">
+        <f>ROUND(W39+W40+W41+W42+W43+W44,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="99"/>
+      <c r="Y51" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A46:V46"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="Y48:Y51"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="S51:V51"/>
     <mergeCell ref="C1:W1"/>
     <mergeCell ref="A2:Y2"/>
     <mergeCell ref="X3:Y3"/>
@@ -4927,35 +4882,18 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="L4:O5"/>
-    <mergeCell ref="Y48:Y51"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="S49:V49"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A46:V46"/>
-    <mergeCell ref="S48:V48"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A33"/>
     <mergeCell ref="P4:Q5"/>
     <mergeCell ref="R4:R6"/>
     <mergeCell ref="S4:V5"/>
     <mergeCell ref="A4:A6"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:N44">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:F44">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>PERFORMANCE-BASED CONTRACT FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS IN SARAWAK</t>
   </si>
@@ -260,13 +260,7 @@
     <t xml:space="preserve">GRAND TOTAL :  RM </t>
   </si>
   <si>
-    <t>Sum of Col W</t>
-  </si>
-  <si>
     <t>ADJUSTABLE QUANTITY: RM</t>
-  </si>
-  <si>
-    <t>Formulated Sum</t>
   </si>
   <si>
     <t>ROUTINE MAINTENANCE: RM</t>
@@ -1188,7 +1182,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,9 +1512,6 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1585,6 +1576,30 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1646,29 +1661,38 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1679,28 +1703,7 @@
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1996,8 +1999,8 @@
   </sheetPr>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2008,7 +2011,7 @@
     <col min="4" max="6" width="7.26953125" customWidth="1"/>
     <col min="7" max="7" width="10.26953125" customWidth="1"/>
     <col min="8" max="10" width="4.7265625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="121" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="120" customWidth="1"/>
     <col min="12" max="14" width="6.54296875" customWidth="1"/>
     <col min="15" max="15" width="8.26953125" customWidth="1"/>
     <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
@@ -2023,60 +2026,60 @@
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
+      <c r="C1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
     </row>
     <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -2089,7 +2092,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="123"/>
+      <c r="K3" s="122"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -2108,99 +2111,99 @@
       <c r="W3" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
     </row>
     <row r="4" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132" t="s">
+      <c r="C4" s="131"/>
+      <c r="D4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="118" t="s">
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118" t="s">
+      <c r="I4" s="169"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="132" t="s">
+      <c r="L4" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="132"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="161" t="s">
+      <c r="M4" s="131"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="161" t="s">
+      <c r="Q4" s="141"/>
+      <c r="R4" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="163" t="s">
+      <c r="S4" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="164"/>
-      <c r="U4" s="164"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="127" t="s">
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="129"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="128"/>
     </row>
     <row r="5" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="140"/>
-      <c r="B5" s="130" t="s">
+      <c r="A5" s="139"/>
+      <c r="B5" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="136" t="s">
+      <c r="E5" s="133"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="138" t="s">
+      <c r="H5" s="172"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="139"/>
+      <c r="X5" s="138"/>
       <c r="Y5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A6" s="140"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
+      <c r="A6" s="139"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="102" t="s">
         <v>19</v>
       </c>
@@ -2210,17 +2213,17 @@
       <c r="F6" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="102" t="s">
+      <c r="G6" s="136"/>
+      <c r="H6" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="118"/>
+      <c r="K6" s="178"/>
       <c r="L6" s="102" t="s">
         <v>19</v>
       </c>
@@ -2239,7 +2242,7 @@
       <c r="Q6" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="161"/>
+      <c r="R6" s="140"/>
       <c r="S6" s="108" t="s">
         <v>25</v>
       </c>
@@ -2263,7 +2266,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="156" t="s">
+      <c r="A7" s="163" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="6">
@@ -2282,7 +2285,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="119">
+      <c r="K7" s="118">
         <f>ROUND(IF(G7,O7/G7,0),2)</f>
         <v>0</v>
       </c>
@@ -2320,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="X7" s="22">
-        <f>ROUND(SUM(IF($W$46,W7/$W$46,0)),2)</f>
+        <f>SUM(IF($W$46,W7/$W$46,0))</f>
         <v>0</v>
       </c>
       <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="147"/>
+      <c r="A8" s="154"/>
       <c r="B8" s="24">
         <v>1012</v>
       </c>
@@ -2343,7 +2346,7 @@
       <c r="H8" s="27"/>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="119">
+      <c r="K8" s="118">
         <f t="shared" ref="K8:K44" si="0">ROUND(IF(G8,O8/G8,0),2)</f>
         <v>0</v>
       </c>
@@ -2381,13 +2384,13 @@
         <v>0</v>
       </c>
       <c r="X8" s="22">
-        <f t="shared" ref="X8:X44" si="8">ROUND(SUM(IF($W$46,W8/$W$46,0)),2)</f>
+        <f t="shared" ref="X8:X44" si="8">SUM(IF($W$46,W8/$W$46,0))</f>
         <v>0</v>
       </c>
       <c r="Y8" s="33"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="147"/>
+      <c r="A9" s="154"/>
       <c r="B9" s="24">
         <v>3013</v>
       </c>
@@ -2404,7 +2407,7 @@
       <c r="H9" s="27"/>
       <c r="I9" s="28"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="119">
+      <c r="K9" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2448,7 +2451,7 @@
       <c r="Y9" s="33"/>
     </row>
     <row r="10" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="147"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="24">
         <v>3014</v>
       </c>
@@ -2465,7 +2468,7 @@
       <c r="H10" s="37"/>
       <c r="I10" s="38"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="119">
+      <c r="K10" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2509,7 +2512,7 @@
       <c r="Y10" s="40"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="147"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="24">
         <v>3015</v>
       </c>
@@ -2526,7 +2529,7 @@
       <c r="H11" s="41"/>
       <c r="I11" s="28"/>
       <c r="J11" s="42"/>
-      <c r="K11" s="119">
+      <c r="K11" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2573,7 +2576,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="147"/>
+      <c r="A12" s="154"/>
       <c r="B12" s="24">
         <v>3016</v>
       </c>
@@ -2590,7 +2593,7 @@
       <c r="H12" s="41"/>
       <c r="I12" s="28"/>
       <c r="J12" s="42"/>
-      <c r="K12" s="119">
+      <c r="K12" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2632,12 +2635,12 @@
         <v>0</v>
       </c>
       <c r="Y12" s="44">
-        <f>ROUND(SUM(X7:X15),2)</f>
+        <f>SUM(X7:X15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="147"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="24">
         <v>3017</v>
       </c>
@@ -2654,7 +2657,7 @@
       <c r="H13" s="41"/>
       <c r="I13" s="28"/>
       <c r="J13" s="42"/>
-      <c r="K13" s="119">
+      <c r="K13" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2698,7 +2701,7 @@
       <c r="Y13" s="33"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="147"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="24">
         <v>3018</v>
       </c>
@@ -2715,7 +2718,7 @@
       <c r="H14" s="41"/>
       <c r="I14" s="28"/>
       <c r="J14" s="42"/>
-      <c r="K14" s="119">
+      <c r="K14" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2759,7 +2762,7 @@
       <c r="Y14" s="33"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="147"/>
+      <c r="A15" s="154"/>
       <c r="B15" s="46">
         <v>3019</v>
       </c>
@@ -2776,7 +2779,7 @@
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
       <c r="J15" s="51"/>
-      <c r="K15" s="119">
+      <c r="K15" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2820,7 +2823,7 @@
       <c r="Y15" s="56"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="163" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="57">
@@ -2839,7 +2842,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="119">
+      <c r="K16" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2883,7 +2886,7 @@
       <c r="Y16" s="23"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="147"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="24">
         <v>3022</v>
       </c>
@@ -2900,7 +2903,7 @@
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="119">
+      <c r="K17" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2947,7 +2950,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="147"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="24">
         <v>3023</v>
       </c>
@@ -2964,7 +2967,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
       <c r="J18" s="29"/>
-      <c r="K18" s="119">
+      <c r="K18" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3006,12 +3009,12 @@
         <v>0</v>
       </c>
       <c r="Y18" s="44">
-        <f>ROUND(SUM(X16:X19),2)</f>
+        <f>SUM(X16:X19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="157"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="46">
         <v>3024</v>
       </c>
@@ -3028,7 +3031,7 @@
       <c r="H19" s="59"/>
       <c r="I19" s="60"/>
       <c r="J19" s="61"/>
-      <c r="K19" s="119">
+      <c r="K19" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3072,7 +3075,7 @@
       <c r="Y19" s="56"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="165" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="6">
@@ -3091,7 +3094,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="119">
+      <c r="K20" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3135,7 +3138,7 @@
       <c r="Y20" s="23"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="159"/>
+      <c r="A21" s="166"/>
       <c r="B21" s="24">
         <v>1042</v>
       </c>
@@ -3152,7 +3155,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
       <c r="J21" s="64"/>
-      <c r="K21" s="119">
+      <c r="K21" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3196,7 +3199,7 @@
       <c r="Y21" s="33"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="159"/>
+      <c r="A22" s="166"/>
       <c r="B22" s="24">
         <v>1043</v>
       </c>
@@ -3213,7 +3216,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="28"/>
       <c r="J22" s="64"/>
-      <c r="K22" s="119">
+      <c r="K22" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3260,7 +3263,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="159"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="24">
         <v>4044</v>
       </c>
@@ -3277,7 +3280,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="28"/>
       <c r="J23" s="64"/>
-      <c r="K23" s="119">
+      <c r="K23" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3319,12 +3322,12 @@
         <v>0</v>
       </c>
       <c r="Y23" s="44">
-        <f>ROUND(SUM(X20:X24),2)</f>
+        <f>SUM(X20:X24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="159"/>
+      <c r="A24" s="166"/>
       <c r="B24" s="46">
         <v>4045</v>
       </c>
@@ -3341,7 +3344,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="119">
+      <c r="K24" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3385,7 +3388,7 @@
       <c r="Y24" s="56"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="165" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="57">
@@ -3404,7 +3407,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="67"/>
       <c r="J25" s="68"/>
-      <c r="K25" s="119">
+      <c r="K25" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3448,7 +3451,7 @@
       <c r="Y25" s="23"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="159"/>
+      <c r="A26" s="166"/>
       <c r="B26" s="24">
         <v>1032</v>
       </c>
@@ -3465,7 +3468,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="28"/>
       <c r="J26" s="29"/>
-      <c r="K26" s="119">
+      <c r="K26" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3512,7 +3515,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="159"/>
+      <c r="A27" s="166"/>
       <c r="B27" s="24">
         <v>4033</v>
       </c>
@@ -3529,7 +3532,7 @@
       <c r="H27" s="37"/>
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
-      <c r="K27" s="119">
+      <c r="K27" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3571,12 +3574,12 @@
         <v>0</v>
       </c>
       <c r="Y27" s="44">
-        <f>ROUND(SUM(X25:X28),2)</f>
+        <f>SUM(X25:X28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="159"/>
+      <c r="A28" s="166"/>
       <c r="B28" s="46">
         <v>4034</v>
       </c>
@@ -3593,7 +3596,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="28"/>
       <c r="J28" s="29"/>
-      <c r="K28" s="119">
+      <c r="K28" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3637,7 +3640,7 @@
       <c r="Y28" s="56"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="158" t="s">
+      <c r="A29" s="165" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="6">
@@ -3656,7 +3659,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="67"/>
       <c r="J29" s="68"/>
-      <c r="K29" s="119">
+      <c r="K29" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3703,7 +3706,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="159"/>
+      <c r="A30" s="166"/>
       <c r="B30" s="46">
         <v>6052</v>
       </c>
@@ -3720,7 +3723,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
       <c r="J30" s="29"/>
-      <c r="K30" s="119">
+      <c r="K30" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3762,12 +3765,12 @@
         <v>0</v>
       </c>
       <c r="Y30" s="44">
-        <f>ROUND(SUM(X29:X30),2)</f>
+        <f>SUM(X29:X30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="165" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="6">
@@ -3786,7 +3789,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="67"/>
       <c r="J31" s="68"/>
-      <c r="K31" s="119">
+      <c r="K31" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3830,7 +3833,7 @@
       <c r="Y31" s="23"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="159"/>
+      <c r="A32" s="166"/>
       <c r="B32" s="24">
         <v>6062</v>
       </c>
@@ -3847,7 +3850,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="28"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="119">
+      <c r="K32" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3894,7 +3897,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="160"/>
+      <c r="A33" s="167"/>
       <c r="B33" s="46">
         <v>6063</v>
       </c>
@@ -3911,7 +3914,7 @@
       <c r="H33" s="37"/>
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
-      <c r="K33" s="119">
+      <c r="K33" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3953,12 +3956,12 @@
         <v>0</v>
       </c>
       <c r="Y33" s="44">
-        <f>ROUND(SUM(X31:X33),2)</f>
+        <f>SUM(X31:X33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="154" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="57">
@@ -3977,7 +3980,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="119">
+      <c r="K34" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4021,7 +4024,7 @@
       <c r="Y34" s="23"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="147"/>
+      <c r="A35" s="154"/>
       <c r="B35" s="24">
         <v>1072</v>
       </c>
@@ -4038,7 +4041,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="28"/>
       <c r="J35" s="64"/>
-      <c r="K35" s="119">
+      <c r="K35" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4085,7 +4088,7 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="147"/>
+      <c r="A36" s="154"/>
       <c r="B36" s="24">
         <v>1073</v>
       </c>
@@ -4102,7 +4105,7 @@
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
       <c r="J36" s="64"/>
-      <c r="K36" s="119">
+      <c r="K36" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4144,12 +4147,12 @@
         <v>0</v>
       </c>
       <c r="Y36" s="44">
-        <f>ROUND(SUM(X34:X38),2)</f>
+        <f>SUM(X34:X38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="147"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="24">
         <v>7074</v>
       </c>
@@ -4166,7 +4169,7 @@
       <c r="H37" s="27"/>
       <c r="I37" s="28"/>
       <c r="J37" s="64"/>
-      <c r="K37" s="119">
+      <c r="K37" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4210,7 +4213,7 @@
       <c r="Y37" s="77"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="147"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="46">
         <v>7075</v>
       </c>
@@ -4227,7 +4230,7 @@
       <c r="H38" s="52"/>
       <c r="I38" s="50"/>
       <c r="J38" s="79"/>
-      <c r="K38" s="119">
+      <c r="K38" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4271,7 +4274,7 @@
       <c r="Y38" s="56"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="155" t="s">
         <v>70</v>
       </c>
       <c r="B39" s="6">
@@ -4290,7 +4293,7 @@
       <c r="H39" s="37"/>
       <c r="I39" s="38"/>
       <c r="J39" s="39"/>
-      <c r="K39" s="119">
+      <c r="K39" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4334,7 +4337,7 @@
       <c r="Y39" s="23"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="149"/>
+      <c r="A40" s="156"/>
       <c r="B40" s="24">
         <v>9092</v>
       </c>
@@ -4351,7 +4354,7 @@
       <c r="H40" s="27"/>
       <c r="I40" s="28"/>
       <c r="J40" s="64"/>
-      <c r="K40" s="119">
+      <c r="K40" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4395,7 +4398,7 @@
       <c r="Y40" s="33"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="149"/>
+      <c r="A41" s="156"/>
       <c r="B41" s="24">
         <v>9093</v>
       </c>
@@ -4412,7 +4415,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="28"/>
       <c r="J41" s="64"/>
-      <c r="K41" s="119">
+      <c r="K41" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4459,7 +4462,7 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="149"/>
+      <c r="A42" s="156"/>
       <c r="B42" s="24">
         <v>9194</v>
       </c>
@@ -4476,7 +4479,7 @@
       <c r="H42" s="27"/>
       <c r="I42" s="28"/>
       <c r="J42" s="64"/>
-      <c r="K42" s="119">
+      <c r="K42" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4518,12 +4521,12 @@
         <v>0</v>
       </c>
       <c r="Y42" s="44">
-        <f>ROUND(SUM(X39:X44),2)</f>
+        <f>SUM(X39:X44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="149"/>
+      <c r="A43" s="156"/>
       <c r="B43" s="24">
         <v>9195</v>
       </c>
@@ -4540,7 +4543,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="28"/>
       <c r="J43" s="64"/>
-      <c r="K43" s="119">
+      <c r="K43" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4584,7 +4587,7 @@
       <c r="Y43" s="77"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="150"/>
+      <c r="A44" s="157"/>
       <c r="B44" s="46">
         <v>9500</v>
       </c>
@@ -4601,7 +4604,7 @@
       <c r="H44" s="52"/>
       <c r="I44" s="50"/>
       <c r="J44" s="79"/>
-      <c r="K44" s="119">
+      <c r="K44" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4655,7 +4658,7 @@
       <c r="H45" s="82"/>
       <c r="I45" s="82"/>
       <c r="J45" s="82"/>
-      <c r="K45" s="120"/>
+      <c r="K45" s="119"/>
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
       <c r="N45" s="81"/>
@@ -4666,38 +4669,36 @@
       <c r="V45" s="84"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" s="151" t="s">
+      <c r="A46" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="152"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="152"/>
-      <c r="Q46" s="152"/>
-      <c r="R46" s="152"/>
-      <c r="S46" s="152"/>
-      <c r="T46" s="152"/>
-      <c r="U46" s="152"/>
-      <c r="V46" s="153"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="159"/>
+      <c r="J46" s="159"/>
+      <c r="K46" s="159"/>
+      <c r="L46" s="159"/>
+      <c r="M46" s="159"/>
+      <c r="N46" s="159"/>
+      <c r="O46" s="159"/>
+      <c r="P46" s="159"/>
+      <c r="Q46" s="159"/>
+      <c r="R46" s="159"/>
+      <c r="S46" s="159"/>
+      <c r="T46" s="159"/>
+      <c r="U46" s="159"/>
+      <c r="V46" s="160"/>
       <c r="W46" s="86">
         <f>SUM(W7:W44)</f>
         <v>0</v>
       </c>
       <c r="X46" s="87"/>
-      <c r="Y46" s="88" t="s">
-        <v>78</v>
-      </c>
+      <c r="Y46" s="88"/>
     </row>
     <row r="47" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="89"/>
@@ -4710,7 +4711,7 @@
       <c r="H47" s="89"/>
       <c r="I47" s="89"/>
       <c r="J47" s="89"/>
-      <c r="K47" s="122"/>
+      <c r="K47" s="121"/>
       <c r="L47" s="89"/>
       <c r="M47" s="89"/>
       <c r="N47" s="89"/>
@@ -4732,7 +4733,7 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-      <c r="K48" s="121"/>
+      <c r="K48" s="120"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -4740,33 +4741,31 @@
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
-      <c r="S48" s="154" t="s">
-        <v>79</v>
-      </c>
-      <c r="T48" s="155"/>
-      <c r="U48" s="155"/>
-      <c r="V48" s="155"/>
+      <c r="S48" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="T48" s="162"/>
+      <c r="U48" s="162"/>
+      <c r="V48" s="162"/>
       <c r="W48" s="92">
         <f>ROUND(W7+W8,2)</f>
         <v>0</v>
       </c>
       <c r="X48" s="93"/>
-      <c r="Y48" s="141" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y48" s="148"/>
     </row>
     <row r="49" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49" s="94"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="142"/>
-      <c r="K49" s="142"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="149"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -4774,31 +4773,31 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="T49" s="144"/>
-      <c r="U49" s="144"/>
-      <c r="V49" s="144"/>
+      <c r="S49" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="T49" s="151"/>
+      <c r="U49" s="151"/>
+      <c r="V49" s="151"/>
       <c r="W49" s="95">
         <f>ROUND(W16+W20+W21+W22+W25+W26+W29+W31+W34+W35+W36,2)</f>
         <v>0</v>
       </c>
       <c r="X49" s="96"/>
-      <c r="Y49" s="141"/>
+      <c r="Y49" s="148"/>
     </row>
     <row r="50" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="97"/>
       <c r="B50" s="94"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="142"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="149"/>
+      <c r="K50" s="149"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -4806,31 +4805,31 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50" s="143" t="s">
-        <v>82</v>
-      </c>
-      <c r="T50" s="144"/>
-      <c r="U50" s="144"/>
-      <c r="V50" s="144"/>
+      <c r="S50" s="150" t="s">
+        <v>80</v>
+      </c>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="151"/>
       <c r="W50" s="95">
         <f>ROUND(W9+W10+W11+W12+W13+W14+W15+W17+W18+W19+W23+W24+W27+W28+W30+W32+W33+W37+W38,2)</f>
         <v>0</v>
       </c>
       <c r="X50" s="96"/>
-      <c r="Y50" s="141"/>
+      <c r="Y50" s="148"/>
     </row>
     <row r="51" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="97"/>
       <c r="B51" s="94"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="142"/>
-      <c r="K51" s="142"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="149"/>
+      <c r="F51" s="149"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="149"/>
+      <c r="K51" s="149"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -4838,21 +4837,23 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" s="145" t="s">
-        <v>83</v>
-      </c>
-      <c r="T51" s="146"/>
-      <c r="U51" s="146"/>
-      <c r="V51" s="146"/>
+      <c r="S51" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="T51" s="153"/>
+      <c r="U51" s="153"/>
+      <c r="V51" s="153"/>
       <c r="W51" s="98">
         <f>ROUND(W39+W40+W41+W42+W43+W44,2)</f>
         <v>0</v>
       </c>
       <c r="X51" s="99"/>
-      <c r="Y51" s="141"/>
+      <c r="Y51" s="148"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="K4:K6"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A46:V46"/>
@@ -4888,12 +4889,12 @@
     <mergeCell ref="A4:A6"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:N44">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:F44">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
@@ -435,18 +435,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1182,7 +1176,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,10 +1187,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,25 +1226,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,22 +1268,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1301,7 +1295,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1310,10 +1304,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1343,13 +1337,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1412,7 +1406,7 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="19" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="19" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1431,9 +1425,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="10" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="20" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1442,59 +1435,59 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="20" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="20" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="2" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="20" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1525,174 +1518,171 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1997,10 +1987,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2011,7 +2001,7 @@
     <col min="4" max="6" width="7.26953125" customWidth="1"/>
     <col min="7" max="7" width="10.26953125" customWidth="1"/>
     <col min="8" max="10" width="4.7265625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="120" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="119" customWidth="1"/>
     <col min="12" max="14" width="6.54296875" customWidth="1"/>
     <col min="15" max="15" width="8.26953125" customWidth="1"/>
     <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
@@ -2026,449 +2016,389 @@
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
+      <c r="C1" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="100" t="s">
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+    </row>
+    <row r="3" spans="1:25" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="101">
-        <v>0</v>
-      </c>
-      <c r="W3" s="100" t="s">
+      <c r="V4" s="100">
+        <v>0</v>
+      </c>
+      <c r="W4" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-    </row>
-    <row r="4" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="139" t="s">
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+    </row>
+    <row r="5" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B5" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="168" t="s">
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="169"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="171" t="s">
+      <c r="I5" s="125"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="131" t="s">
+      <c r="L5" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="140" t="s">
+      <c r="M5" s="160"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="140" t="s">
+      <c r="Q5" s="170"/>
+      <c r="R5" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="142" t="s">
+      <c r="S5" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="126" t="s">
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="128"/>
-    </row>
-    <row r="5" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="139"/>
-      <c r="B5" s="129" t="s">
+      <c r="X5" s="156"/>
+      <c r="Y5" s="157"/>
+    </row>
+    <row r="6" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="168"/>
+      <c r="B6" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C6" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="132" t="s">
+      <c r="D6" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135" t="s">
+      <c r="E6" s="162"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="145"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="137" t="s">
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="4" t="s">
+      <c r="X6" s="167"/>
+      <c r="Y6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A6" s="139"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="102" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="168"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E7" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="176" t="s">
+      <c r="G7" s="165"/>
+      <c r="H7" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="177" t="s">
+      <c r="I7" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="176" t="s">
+      <c r="J7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="178"/>
-      <c r="L6" s="102" t="s">
+      <c r="K7" s="132"/>
+      <c r="L7" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="103" t="s">
+      <c r="M7" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="105" t="s">
+      <c r="N7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="106" t="s">
+      <c r="P7" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="107" t="s">
+      <c r="Q7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="108" t="s">
+      <c r="R7" s="169"/>
+      <c r="S7" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="109" t="s">
+      <c r="T7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="109" t="s">
+      <c r="U7" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="110" t="s">
+      <c r="V7" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="111" t="s">
+      <c r="W7" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="112" t="s">
+      <c r="X7" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="113" t="s">
+      <c r="Y7" s="112" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="163" t="s">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <v>1011</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="117">
-        <f>SUM(D7:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="118">
-        <f>ROUND(IF(G7,O7/G7,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <f>ROUND(H7*D7,2)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <f>ROUND(E7*I7,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <f>ROUND(F7*J7,2)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <f>ROUND(SUM(L7:N7),2)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17">
-        <f>ROUND(IF(P7,O7/P7,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="20">
-        <f>ROUND(SUM(S7:U7),2)</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="21">
-        <f>ROUND(R7*V7,2)</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="22">
-        <f>SUM(IF($W$46,W7/$W$46,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="23"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="154"/>
-      <c r="B8" s="24">
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116">
+        <f>SUM(D8:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="117">
+        <f>ROUND(IF(G8,O8/G8,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <f>ROUND(H8*D8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <f>ROUND(E8*I8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <f>ROUND(F8*J8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <f>ROUND(SUM(L8:N8),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17">
+        <f>ROUND(IF(P8,O8/P8,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="20">
+        <f>ROUND(SUM(S8:U8),2)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="21">
+        <f>ROUND(R8*V8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="22">
+        <f>SUM(IF($W$47,W8/$W$47,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="23"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="133"/>
+      <c r="B9" s="24">
         <v>1012</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="26">
-        <f>SUM(D8:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="118">
-        <f t="shared" ref="K8:K44" si="0">ROUND(IF(G8,O8/G8,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" ref="L8:L44" si="1">ROUND(H8*D8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <f t="shared" ref="M8:M44" si="2">ROUND(E8*I8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <f t="shared" ref="N8:N44" si="3">ROUND(F8*J8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <f t="shared" ref="O8:O44" si="4">ROUND(SUM(L8:N8),2)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="17">
-        <f t="shared" ref="R8:R44" si="5">ROUND(IF(P8,O8/P8,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="31"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="20">
-        <f t="shared" ref="V8:V44" si="6">ROUND(SUM(S8:U8),2)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="21">
-        <f t="shared" ref="W8:W44" si="7">ROUND(R8*V8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="22">
-        <f t="shared" ref="X8:X44" si="8">SUM(IF($W$46,W8/$W$46,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="33"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="154"/>
-      <c r="B9" s="24">
-        <v>3013</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="34">
-        <f t="shared" ref="G9:G20" si="9">SUM(D9:F9)</f>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="26">
+        <f>SUM(D9:F9)</f>
         <v>0</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="28"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="118">
-        <f t="shared" si="0"/>
+      <c r="K9" s="117">
+        <f t="shared" ref="K9:K45" si="0">ROUND(IF(G9,O9/G9,0),2)</f>
         <v>0</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L9:L45" si="1">ROUND(H9*D9,2)</f>
         <v>0</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M9:M45" si="2">ROUND(E9*I9,2)</f>
         <v>0</v>
       </c>
       <c r="N9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N9:N45" si="3">ROUND(F9*J9,2)</f>
         <v>0</v>
       </c>
       <c r="O9" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O9:O45" si="4">ROUND(SUM(L9:N9),2)</f>
         <v>0</v>
       </c>
       <c r="P9" s="27"/>
       <c r="Q9" s="30"/>
       <c r="R9" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
+        <f t="shared" ref="R9:R45" si="5">ROUND(IF(P9,O9/P9,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="31"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
       <c r="V9" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="V9:V45" si="6">ROUND(SUM(S9:U9),2)</f>
         <v>0</v>
       </c>
       <c r="W9" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="W9:W45" si="7">ROUND(R9*V9,2)</f>
         <v>0</v>
       </c>
       <c r="X9" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="X9:X45" si="8">SUM(IF($W$47,W9/$W$47,0))</f>
         <v>0</v>
       </c>
       <c r="Y9" s="33"/>
     </row>
-    <row r="10" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="154"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="133"/>
       <c r="B10" s="24">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="26">
-        <f>SUM(D10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="118">
+        <v>34</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="34">
+        <f t="shared" ref="G10:G21" si="9">SUM(D10:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2488,7 +2418,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P10" s="37"/>
+      <c r="P10" s="27"/>
       <c r="Q10" s="30"/>
       <c r="R10" s="17">
         <f t="shared" si="5"/>
@@ -2509,27 +2439,27 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="40"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="154"/>
+      <c r="Y10" s="33"/>
+    </row>
+    <row r="11" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133"/>
       <c r="B11" s="24">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="116"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
       <c r="G11" s="26">
         <f>SUM(D11:F11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="118">
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2549,7 +2479,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P11" s="27"/>
+      <c r="P11" s="37"/>
       <c r="Q11" s="30"/>
       <c r="R11" s="17">
         <f t="shared" si="5"/>
@@ -2570,30 +2500,27 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="43">
-        <f>SUM(W7:W15)</f>
-        <v>0</v>
-      </c>
+      <c r="Y11" s="40"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="154"/>
+      <c r="A12" s="133"/>
       <c r="B12" s="24">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="34">
+        <v>36</v>
+      </c>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="26">
         <f>SUM(D12:F12)</f>
         <v>0</v>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="28"/>
       <c r="J12" s="42"/>
-      <c r="K12" s="118">
+      <c r="K12" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2613,7 +2540,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P12" s="37"/>
+      <c r="P12" s="27"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="17">
         <f t="shared" si="5"/>
@@ -2634,22 +2561,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="44">
-        <f>SUM(X7:X15)</f>
+      <c r="Y12" s="43">
+        <f>SUM(W8:W16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="154"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="24">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="34">
         <f>SUM(D13:F13)</f>
         <v>0</v>
@@ -2657,7 +2584,7 @@
       <c r="H13" s="41"/>
       <c r="I13" s="28"/>
       <c r="J13" s="42"/>
-      <c r="K13" s="118">
+      <c r="K13" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2677,7 +2604,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="37"/>
       <c r="Q13" s="30"/>
       <c r="R13" s="17">
         <f t="shared" si="5"/>
@@ -2698,27 +2625,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="33"/>
+      <c r="Y13" s="44">
+        <f>SUM(X8:X16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="154"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="24">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="26">
-        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="34">
+        <f>SUM(D14:F14)</f>
         <v>0</v>
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="28"/>
       <c r="J14" s="42"/>
-      <c r="K14" s="118">
+      <c r="K14" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2738,8 +2668,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="45"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="30"/>
       <c r="R14" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2762,24 +2692,24 @@
       <c r="Y14" s="33"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="154"/>
-      <c r="B15" s="46">
-        <v>3019</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="48">
+      <c r="A15" s="133"/>
+      <c r="B15" s="24">
+        <v>3018</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="118">
+      <c r="H15" s="41"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2799,15 +2729,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="45"/>
       <c r="R15" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S15" s="54"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
       <c r="V15" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2820,29 +2750,27 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="56"/>
-    </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="163" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="57">
-        <v>1021</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="26">
+      <c r="Y15" s="33"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="133"/>
+      <c r="B16" s="46">
+        <v>3019</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="118">
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2862,15 +2790,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="45"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="53"/>
       <c r="R16" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S16" s="31"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
       <c r="V16" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2883,27 +2811,29 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="23"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="154"/>
-      <c r="B17" s="24">
-        <v>3022</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
+      <c r="Y16" s="56"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="142" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="57">
+        <v>1021</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
       <c r="G17" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="118">
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2923,15 +2853,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="30"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="45"/>
       <c r="R17" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S17" s="35"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
       <c r="V17" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2944,30 +2874,27 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="43">
-        <f>SUM(W16:W19)</f>
-        <v>0</v>
-      </c>
+      <c r="Y17" s="23"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="154"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="24">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="34">
+        <v>43</v>
+      </c>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="118">
+      <c r="J18" s="42"/>
+      <c r="K18" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3008,30 +2935,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="44">
-        <f>SUM(X16:X19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="164"/>
-      <c r="B19" s="46">
-        <v>3024</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="48">
+      <c r="Y18" s="43">
+        <f>SUM(W17:W20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19" s="133"/>
+      <c r="B19" s="24">
+        <v>3023</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="118">
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3051,15 +2978,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="62"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="30"/>
       <c r="R19" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S19" s="54"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
       <c r="V19" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3072,29 +2999,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="56"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="165" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1041</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="26">
+      <c r="Y19" s="44">
+        <f>SUM(X17:X20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="143"/>
+      <c r="B20" s="46">
+        <v>3024</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="118">
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3114,15 +3042,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="30"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="62"/>
       <c r="R20" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S20" s="18"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="32"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
       <c r="V20" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3135,27 +3063,29 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="23"/>
+      <c r="Y20" s="56"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="166"/>
-      <c r="B21" s="24">
-        <v>1042</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="63">
-        <f>SUM(D21:F21)</f>
+      <c r="A21" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1041</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="113"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="118">
+      <c r="J21" s="29"/>
+      <c r="K21" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3181,9 +3111,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="32"/>
       <c r="V21" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3196,27 +3126,27 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="33"/>
+      <c r="Y21" s="23"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="166"/>
+      <c r="A22" s="145"/>
       <c r="B22" s="24">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="65">
-        <f t="shared" ref="G22:G32" si="10">SUM(D22:F22)</f>
+        <v>48</v>
+      </c>
+      <c r="D22" s="113"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="63">
+        <f>SUM(D22:F22)</f>
         <v>0</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="28"/>
       <c r="J22" s="64"/>
-      <c r="K22" s="118">
+      <c r="K22" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3257,30 +3187,27 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="43">
-        <f>SUM(W20:W24)</f>
-        <v>0</v>
-      </c>
+      <c r="Y22" s="33"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="166"/>
+      <c r="A23" s="145"/>
       <c r="B23" s="24">
-        <v>4044</v>
+        <v>1043</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
+        <v>49</v>
+      </c>
+      <c r="D23" s="113"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G23:G33" si="10">SUM(D23:F23)</f>
         <v>0</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="28"/>
       <c r="J23" s="64"/>
-      <c r="K23" s="118">
+      <c r="K23" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3321,30 +3248,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="44">
-        <f>SUM(X20:X24)</f>
+      <c r="Y23" s="43">
+        <f>SUM(W21:W25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="166"/>
-      <c r="B24" s="46">
-        <v>4045</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="48">
+      <c r="A24" s="145"/>
+      <c r="B24" s="24">
+        <v>4044</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="113"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="118">
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3364,15 +3291,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="45"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="30"/>
       <c r="R24" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S24" s="54"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
       <c r="V24" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3385,29 +3312,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="56"/>
+      <c r="Y24" s="44">
+        <f>SUM(X21:X25)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="165" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="57">
-        <v>1031</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="66">
+      <c r="A25" s="145"/>
+      <c r="B25" s="46">
+        <v>4045</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="118">
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3427,15 +3355,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="45"/>
       <c r="R25" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S25" s="18"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
       <c r="V25" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3448,27 +3376,29 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="23"/>
+      <c r="Y25" s="56"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="166"/>
-      <c r="B26" s="24">
-        <v>1032</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="63">
-        <f>SUM(D26:F26)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="118">
+      <c r="A26" s="144" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="57">
+        <v>1031</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3488,15 +3418,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="30"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
       <c r="R26" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S26" s="35"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
       <c r="V26" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3509,30 +3439,27 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="43">
-        <f>SUM(W25:W28)</f>
-        <v>0</v>
-      </c>
+      <c r="Y26" s="23"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="166"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="24">
-        <v>4033</v>
+        <v>1032</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="116"/>
+        <v>54</v>
+      </c>
+      <c r="D27" s="113"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="63">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="118">
+        <f>SUM(D27:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3552,8 +3479,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="45"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="30"/>
       <c r="R27" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3573,30 +3500,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="44">
-        <f>SUM(X25:X28)</f>
+      <c r="Y27" s="43">
+        <f>SUM(W26:W29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="166"/>
-      <c r="B28" s="46">
-        <v>4034</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="116"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="24">
+        <v>4033</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="115"/>
       <c r="G28" s="63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="118">
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3616,15 +3543,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="30"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="45"/>
       <c r="R28" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S28" s="54"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
       <c r="V28" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3637,29 +3564,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="56"/>
+      <c r="Y28" s="44">
+        <f>SUM(X26:X29)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="165" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1051</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="69">
-        <f>SUM(D29:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="118">
+      <c r="A29" s="145"/>
+      <c r="B29" s="46">
+        <v>4034</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="113"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3679,15 +3607,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="16"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="30"/>
       <c r="R29" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S29" s="31"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
       <c r="V29" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3700,30 +3628,29 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="43">
-        <f>SUM(W29:W30)</f>
-        <v>0</v>
-      </c>
+      <c r="Y29" s="56"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="166"/>
-      <c r="B30" s="46">
-        <v>6052</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="70">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="118">
+      <c r="A30" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1051</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="113"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="69">
+        <f>SUM(D30:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3743,15 +3670,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="30"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
       <c r="R30" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S30" s="54"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
       <c r="V30" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3764,32 +3691,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="44">
-        <f>SUM(X29:X30)</f>
+      <c r="Y30" s="43">
+        <f>SUM(W30:W31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="165" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1061</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="69">
+      <c r="A31" s="145"/>
+      <c r="B31" s="46">
+        <v>6052</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="113"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="118">
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3809,15 +3734,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="16"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="30"/>
       <c r="R31" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S31" s="31"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
       <c r="V31" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3830,27 +3755,32 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="23"/>
+      <c r="Y31" s="44">
+        <f>SUM(X30:X31)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="166"/>
-      <c r="B32" s="24">
-        <v>6062</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="116"/>
+      <c r="A32" s="144" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1061</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="113"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="115"/>
       <c r="G32" s="69">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="118">
+      <c r="H32" s="15"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3870,15 +3800,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="30"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="16"/>
       <c r="R32" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
       <c r="V32" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3891,30 +3821,27 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="43">
-        <f>SUM(W31:W33)</f>
-        <v>0</v>
-      </c>
+      <c r="Y32" s="23"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="167"/>
-      <c r="B33" s="46">
-        <v>6063</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="71">
-        <f t="shared" ref="G33:G38" si="11">SUM(D33:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="118">
+      <c r="A33" s="145"/>
+      <c r="B33" s="24">
+        <v>6062</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="113"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3934,15 +3861,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="45"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="30"/>
       <c r="R33" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S33" s="54"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
       <c r="V33" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3955,32 +3882,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="44">
-        <f>SUM(X31:X33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="154" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="57">
-        <v>1071</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="72">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="118">
+      <c r="Y33" s="43">
+        <f>SUM(W32:W34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34" s="146"/>
+      <c r="B34" s="46">
+        <v>6063</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="113"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="71">
+        <f t="shared" ref="G34:G39" si="11">SUM(D34:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4000,15 +3925,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="73"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="45"/>
       <c r="R34" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S34" s="31"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
       <c r="V34" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4021,27 +3946,32 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="23"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="154"/>
-      <c r="B35" s="24">
-        <v>1072</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="74">
+      <c r="Y34" s="44">
+        <f>SUM(X32:X34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="57">
+        <v>1071</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="113"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="72">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="118">
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4061,15 +3991,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="30"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="73"/>
       <c r="R35" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S35" s="35"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
       <c r="V35" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4082,30 +4012,27 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="43">
-        <f>SUM(W34:W38)</f>
-        <v>0</v>
-      </c>
+      <c r="Y35" s="23"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="154"/>
+      <c r="A36" s="133"/>
       <c r="B36" s="24">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="75">
+        <v>66</v>
+      </c>
+      <c r="D36" s="113"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="74">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
       <c r="J36" s="64"/>
-      <c r="K36" s="118">
+      <c r="K36" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4146,30 +4073,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="44">
-        <f>SUM(X34:X38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="154"/>
+      <c r="Y36" s="43">
+        <f>SUM(W35:W39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37" s="133"/>
       <c r="B37" s="24">
-        <v>7074</v>
+        <v>1073</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="114"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="76">
+        <v>67</v>
+      </c>
+      <c r="D37" s="113"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="75">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="28"/>
       <c r="J37" s="64"/>
-      <c r="K37" s="118">
+      <c r="K37" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4210,27 +4137,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="77"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="154"/>
-      <c r="B38" s="46">
-        <v>7075</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="78">
+      <c r="Y37" s="44">
+        <f>SUM(X35:X39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="133"/>
+      <c r="B38" s="24">
+        <v>7074</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="113"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="76">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="118">
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4250,15 +4180,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="53"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="30"/>
       <c r="R38" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S38" s="54"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
       <c r="V38" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4271,29 +4201,27 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="56"/>
+      <c r="Y38" s="77"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="155" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="6">
-        <v>9091</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="114"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="80">
-        <f>SUM(D39:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="118">
+      <c r="A39" s="133"/>
+      <c r="B39" s="46">
+        <v>7075</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="113"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="52"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4313,15 +4241,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="45"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="53"/>
       <c r="R39" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S39" s="31"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
       <c r="V39" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4334,27 +4262,29 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="23"/>
+      <c r="Y39" s="56"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="156"/>
-      <c r="B40" s="24">
-        <v>9092</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="114"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="76">
+      <c r="A40" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="6">
+        <v>9091</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="113"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="80">
         <f>SUM(D40:F40)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="118">
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4374,15 +4304,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="30"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="45"/>
       <c r="R40" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S40" s="35"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
       <c r="V40" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4395,19 +4325,19 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="33"/>
+      <c r="Y40" s="23"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="156"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="24">
-        <v>9093</v>
+        <v>9092</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="114"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="116"/>
+        <v>72</v>
+      </c>
+      <c r="D41" s="113"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="115"/>
       <c r="G41" s="76">
         <f>SUM(D41:F41)</f>
         <v>0</v>
@@ -4415,7 +4345,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="28"/>
       <c r="J41" s="64"/>
-      <c r="K41" s="118">
+      <c r="K41" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4456,22 +4386,19 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="43">
-        <f>SUM(W39:W44)</f>
-        <v>0</v>
-      </c>
+      <c r="Y41" s="33"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="156"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="24">
-        <v>9194</v>
+        <v>9093</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="114"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116"/>
+        <v>73</v>
+      </c>
+      <c r="D42" s="113"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="115"/>
       <c r="G42" s="76">
         <f>SUM(D42:F42)</f>
         <v>0</v>
@@ -4479,7 +4406,7 @@
       <c r="H42" s="27"/>
       <c r="I42" s="28"/>
       <c r="J42" s="64"/>
-      <c r="K42" s="118">
+      <c r="K42" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4520,30 +4447,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="44">
-        <f>SUM(X39:X44)</f>
+      <c r="Y42" s="43">
+        <f>SUM(W40:W45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="156"/>
+      <c r="A43" s="135"/>
       <c r="B43" s="24">
-        <v>9195</v>
+        <v>9194</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="114"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="116"/>
+        <v>74</v>
+      </c>
+      <c r="D43" s="113"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="115"/>
       <c r="G43" s="76">
-        <f t="shared" ref="G43:G44" si="12">SUM(D43:F43)</f>
+        <f>SUM(D43:F43)</f>
         <v>0</v>
       </c>
       <c r="H43" s="27"/>
       <c r="I43" s="28"/>
       <c r="J43" s="64"/>
-      <c r="K43" s="118">
+      <c r="K43" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4563,8 +4490,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="45"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="30"/>
       <c r="R43" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4584,27 +4511,30 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="77"/>
+      <c r="Y43" s="44">
+        <f>SUM(X40:X45)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="157"/>
-      <c r="B44" s="46">
-        <v>9500</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="114"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="116"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="24">
+        <v>9195</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="113"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="115"/>
       <c r="G44" s="76">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="52"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="118">
+        <f t="shared" ref="G44:G45" si="12">SUM(D44:F44)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="27"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4624,15 +4554,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="53"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="45"/>
       <c r="R44" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S44" s="54"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
       <c r="V44" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4645,127 +4575,156 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="56"/>
-    </row>
-    <row r="45" spans="1:25" ht="5.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="81"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="83"/>
-      <c r="V45" s="84"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" s="158" t="s">
+      <c r="Y44" s="77"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45" s="136"/>
+      <c r="B45" s="46">
+        <v>9500</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="113"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="52"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="117">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="54"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="56"/>
+    </row>
+    <row r="46" spans="1:25" ht="5.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="81"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="83"/>
+      <c r="V46" s="84"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="159"/>
-      <c r="C46" s="159"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="159"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="159"/>
-      <c r="I46" s="159"/>
-      <c r="J46" s="159"/>
-      <c r="K46" s="159"/>
-      <c r="L46" s="159"/>
-      <c r="M46" s="159"/>
-      <c r="N46" s="159"/>
-      <c r="O46" s="159"/>
-      <c r="P46" s="159"/>
-      <c r="Q46" s="159"/>
-      <c r="R46" s="159"/>
-      <c r="S46" s="159"/>
-      <c r="T46" s="159"/>
-      <c r="U46" s="159"/>
-      <c r="V46" s="160"/>
-      <c r="W46" s="86">
-        <f>SUM(W7:W44)</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="87"/>
-      <c r="Y46" s="88"/>
-    </row>
-    <row r="47" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="89"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="121"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="90"/>
-      <c r="U47" s="90"/>
-      <c r="V47" s="90"/>
-      <c r="W47" s="90"/>
-    </row>
-    <row r="48" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="91"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="138"/>
+      <c r="L47" s="138"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="138"/>
+      <c r="O47" s="138"/>
+      <c r="P47" s="138"/>
+      <c r="Q47" s="138"/>
+      <c r="R47" s="138"/>
+      <c r="S47" s="138"/>
+      <c r="T47" s="138"/>
+      <c r="U47" s="138"/>
+      <c r="V47" s="139"/>
+      <c r="W47" s="86">
+        <f>SUM(W8:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="87"/>
+      <c r="Y47"/>
+    </row>
+    <row r="48" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="88"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
       <c r="K48" s="120"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="T48" s="162"/>
-      <c r="U48" s="162"/>
-      <c r="V48" s="162"/>
-      <c r="W48" s="92">
-        <f>ROUND(W7+W8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="93"/>
-      <c r="Y48" s="148"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
+      <c r="W48" s="89"/>
     </row>
     <row r="49" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="149"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="149"/>
+      <c r="A49" s="90"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="K49" s="119"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -4773,31 +4732,31 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49" s="150" t="s">
-        <v>79</v>
-      </c>
-      <c r="T49" s="151"/>
-      <c r="U49" s="151"/>
-      <c r="V49" s="151"/>
-      <c r="W49" s="95">
-        <f>ROUND(W16+W20+W21+W22+W25+W26+W29+W31+W34+W35+W36,2)</f>
-        <v>0</v>
-      </c>
-      <c r="X49" s="96"/>
-      <c r="Y49" s="148"/>
+      <c r="S49" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="T49" s="141"/>
+      <c r="U49" s="141"/>
+      <c r="V49" s="141"/>
+      <c r="W49" s="91">
+        <f>ROUND(W8+W9,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="92"/>
+      <c r="Y49"/>
     </row>
     <row r="50" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="97"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="149"/>
-      <c r="D50" s="149"/>
-      <c r="E50" s="149"/>
-      <c r="F50" s="149"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="149"/>
-      <c r="J50" s="149"/>
-      <c r="K50" s="149"/>
+      <c r="A50"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="147"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -4805,31 +4764,31 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50" s="150" t="s">
-        <v>80</v>
-      </c>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="151"/>
-      <c r="W50" s="95">
-        <f>ROUND(W9+W10+W11+W12+W13+W14+W15+W17+W18+W19+W23+W24+W27+W28+W30+W32+W33+W37+W38,2)</f>
-        <v>0</v>
-      </c>
-      <c r="X50" s="96"/>
-      <c r="Y50" s="148"/>
+      <c r="S50" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="T50" s="149"/>
+      <c r="U50" s="149"/>
+      <c r="V50" s="149"/>
+      <c r="W50" s="94">
+        <f>ROUND(W17+W21+W22+W23+W26+W27+W30+W32+W35+W36+W37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="95"/>
+      <c r="Y50"/>
     </row>
     <row r="51" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="97"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="149"/>
-      <c r="K51" s="149"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -4837,63 +4796,95 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" s="152" t="s">
+      <c r="S51" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="T51" s="149"/>
+      <c r="U51" s="149"/>
+      <c r="V51" s="149"/>
+      <c r="W51" s="94">
+        <f>ROUND(W10+W11+W12+W13+W14+W15+W16+W18+W19+W20+W24+W25+W28+W29+W31+W33+W34+W38+W39,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="95"/>
+      <c r="Y51"/>
+    </row>
+    <row r="52" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="96"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="147"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="T51" s="153"/>
-      <c r="U51" s="153"/>
-      <c r="V51" s="153"/>
-      <c r="W51" s="98">
-        <f>ROUND(W39+W40+W41+W42+W43+W44,2)</f>
-        <v>0</v>
-      </c>
-      <c r="X51" s="99"/>
-      <c r="Y51" s="148"/>
+      <c r="T52" s="151"/>
+      <c r="U52" s="151"/>
+      <c r="V52" s="151"/>
+      <c r="W52" s="97">
+        <f>ROUND(W40+W41+W42+W43+W44+W45,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="98"/>
+      <c r="Y52"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A46:V46"/>
-    <mergeCell ref="S48:V48"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="Y48:Y51"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="L5:O6"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:V6"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="C50:K50"/>
     <mergeCell ref="S50:V50"/>
     <mergeCell ref="C51:K51"/>
     <mergeCell ref="S51:V51"/>
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="L4:O5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:V5"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A47:V47"/>
   </mergeCells>
-  <conditionalFormatting sqref="L7:N44">
+  <conditionalFormatting sqref="L8:N45">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:F44">
+  <conditionalFormatting sqref="D8:F45">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
@@ -1176,7 +1176,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1524,73 +1524,79 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1609,80 +1615,77 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1990,7 +1993,7 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="K5" sqref="K5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2016,62 +2019,88 @@
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="152"/>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
+      <c r="C1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-    </row>
-    <row r="3" spans="1:25" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+    </row>
+    <row r="3" spans="1:25" s="177" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+    </row>
     <row r="4" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
@@ -2102,99 +2131,99 @@
       <c r="W4" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160" t="s">
+      <c r="C5" s="132"/>
+      <c r="D5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="124" t="s">
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="130" t="s">
+      <c r="I5" s="163"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="160"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="169" t="s">
+      <c r="M5" s="132"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="169" t="s">
+      <c r="Q5" s="142"/>
+      <c r="R5" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="171" t="s">
+      <c r="S5" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="155" t="s">
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="156"/>
-      <c r="Y5" s="157"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="129"/>
     </row>
     <row r="6" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="168"/>
-      <c r="B6" s="158" t="s">
+      <c r="A6" s="140"/>
+      <c r="B6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="161" t="s">
+      <c r="D6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164" t="s">
+      <c r="E6" s="134"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="176"/>
-      <c r="W6" s="166" t="s">
+      <c r="H6" s="165"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="167"/>
+      <c r="X6" s="139"/>
       <c r="Y6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="168"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="101" t="s">
         <v>19</v>
       </c>
@@ -2204,7 +2233,7 @@
       <c r="F7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="165"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="122" t="s">
         <v>19</v>
       </c>
@@ -2214,7 +2243,7 @@
       <c r="J7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="132"/>
+      <c r="K7" s="170"/>
       <c r="L7" s="101" t="s">
         <v>19</v>
       </c>
@@ -2233,7 +2262,7 @@
       <c r="Q7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="169"/>
+      <c r="R7" s="141"/>
       <c r="S7" s="107" t="s">
         <v>25</v>
       </c>
@@ -2257,7 +2286,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="156" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="6">
@@ -2320,7 +2349,7 @@
       <c r="Y8" s="23"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="133"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="24">
         <v>1012</v>
       </c>
@@ -2381,7 +2410,7 @@
       <c r="Y9" s="33"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="133"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="24">
         <v>3013</v>
       </c>
@@ -2442,7 +2471,7 @@
       <c r="Y10" s="33"/>
     </row>
     <row r="11" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="24">
         <v>3014</v>
       </c>
@@ -2503,7 +2532,7 @@
       <c r="Y11" s="40"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="133"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="24">
         <v>3015</v>
       </c>
@@ -2567,7 +2596,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="133"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="24">
         <v>3016</v>
       </c>
@@ -2631,7 +2660,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="133"/>
+      <c r="A14" s="157"/>
       <c r="B14" s="24">
         <v>3017</v>
       </c>
@@ -2692,7 +2721,7 @@
       <c r="Y14" s="33"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="133"/>
+      <c r="A15" s="157"/>
       <c r="B15" s="24">
         <v>3018</v>
       </c>
@@ -2753,7 +2782,7 @@
       <c r="Y15" s="33"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="133"/>
+      <c r="A16" s="157"/>
       <c r="B16" s="46">
         <v>3019</v>
       </c>
@@ -2814,7 +2843,7 @@
       <c r="Y16" s="56"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="156" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="57">
@@ -2877,7 +2906,7 @@
       <c r="Y17" s="23"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="133"/>
+      <c r="A18" s="157"/>
       <c r="B18" s="24">
         <v>3022</v>
       </c>
@@ -2941,7 +2970,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="133"/>
+      <c r="A19" s="157"/>
       <c r="B19" s="24">
         <v>3023</v>
       </c>
@@ -3005,7 +3034,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="143"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="46">
         <v>3024</v>
       </c>
@@ -3066,7 +3095,7 @@
       <c r="Y20" s="56"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="159" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="6">
@@ -3129,7 +3158,7 @@
       <c r="Y21" s="23"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="145"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="24">
         <v>1042</v>
       </c>
@@ -3190,7 +3219,7 @@
       <c r="Y22" s="33"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="145"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="24">
         <v>1043</v>
       </c>
@@ -3254,7 +3283,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="145"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="24">
         <v>4044</v>
       </c>
@@ -3318,7 +3347,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="145"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="46">
         <v>4045</v>
       </c>
@@ -3379,7 +3408,7 @@
       <c r="Y25" s="56"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="159" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="57">
@@ -3442,7 +3471,7 @@
       <c r="Y26" s="23"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="145"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="24">
         <v>1032</v>
       </c>
@@ -3506,7 +3535,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="145"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="24">
         <v>4033</v>
       </c>
@@ -3570,7 +3599,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="145"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="46">
         <v>4034</v>
       </c>
@@ -3631,7 +3660,7 @@
       <c r="Y29" s="56"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="159" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6">
@@ -3697,7 +3726,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="145"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="46">
         <v>6052</v>
       </c>
@@ -3761,7 +3790,7 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="144" t="s">
+      <c r="A32" s="159" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="6">
@@ -3824,7 +3853,7 @@
       <c r="Y32" s="23"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="145"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="24">
         <v>6062</v>
       </c>
@@ -3888,7 +3917,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="146"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="46">
         <v>6063</v>
       </c>
@@ -3952,7 +3981,7 @@
       </c>
     </row>
     <row r="35" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="133" t="s">
+      <c r="A35" s="157" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="57">
@@ -4015,7 +4044,7 @@
       <c r="Y35" s="23"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="133"/>
+      <c r="A36" s="157"/>
       <c r="B36" s="24">
         <v>1072</v>
       </c>
@@ -4079,7 +4108,7 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="133"/>
+      <c r="A37" s="157"/>
       <c r="B37" s="24">
         <v>1073</v>
       </c>
@@ -4143,7 +4172,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="133"/>
+      <c r="A38" s="157"/>
       <c r="B38" s="24">
         <v>7074</v>
       </c>
@@ -4204,7 +4233,7 @@
       <c r="Y38" s="77"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="133"/>
+      <c r="A39" s="157"/>
       <c r="B39" s="46">
         <v>7075</v>
       </c>
@@ -4265,7 +4294,7 @@
       <c r="Y39" s="56"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="134" t="s">
+      <c r="A40" s="171" t="s">
         <v>70</v>
       </c>
       <c r="B40" s="6">
@@ -4328,7 +4357,7 @@
       <c r="Y40" s="23"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="135"/>
+      <c r="A41" s="172"/>
       <c r="B41" s="24">
         <v>9092</v>
       </c>
@@ -4389,7 +4418,7 @@
       <c r="Y41" s="33"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="135"/>
+      <c r="A42" s="172"/>
       <c r="B42" s="24">
         <v>9093</v>
       </c>
@@ -4453,7 +4482,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="135"/>
+      <c r="A43" s="172"/>
       <c r="B43" s="24">
         <v>9194</v>
       </c>
@@ -4517,7 +4546,7 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="135"/>
+      <c r="A44" s="172"/>
       <c r="B44" s="24">
         <v>9195</v>
       </c>
@@ -4578,7 +4607,7 @@
       <c r="Y44" s="77"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A45" s="136"/>
+      <c r="A45" s="173"/>
       <c r="B45" s="46">
         <v>9500</v>
       </c>
@@ -4660,30 +4689,30 @@
       <c r="V46" s="84"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A47" s="137" t="s">
+      <c r="A47" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="138"/>
-      <c r="K47" s="138"/>
-      <c r="L47" s="138"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="138"/>
-      <c r="P47" s="138"/>
-      <c r="Q47" s="138"/>
-      <c r="R47" s="138"/>
-      <c r="S47" s="138"/>
-      <c r="T47" s="138"/>
-      <c r="U47" s="138"/>
-      <c r="V47" s="139"/>
+      <c r="B47" s="175"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="175"/>
+      <c r="M47" s="175"/>
+      <c r="N47" s="175"/>
+      <c r="O47" s="175"/>
+      <c r="P47" s="175"/>
+      <c r="Q47" s="175"/>
+      <c r="R47" s="175"/>
+      <c r="S47" s="175"/>
+      <c r="T47" s="175"/>
+      <c r="U47" s="175"/>
+      <c r="V47" s="176"/>
       <c r="W47" s="86">
         <f>SUM(W8:W45)</f>
         <v>0</v>
@@ -4732,12 +4761,12 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49" s="140" t="s">
+      <c r="S49" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="T49" s="141"/>
-      <c r="U49" s="141"/>
-      <c r="V49" s="141"/>
+      <c r="T49" s="155"/>
+      <c r="U49" s="155"/>
+      <c r="V49" s="155"/>
       <c r="W49" s="91">
         <f>ROUND(W8+W9,2)</f>
         <v>0</v>
@@ -4748,15 +4777,15 @@
     <row r="50" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50" s="93"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="147"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="149"/>
+      <c r="K50" s="149"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -4764,12 +4793,12 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50" s="148" t="s">
+      <c r="S50" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="T50" s="149"/>
-      <c r="U50" s="149"/>
-      <c r="V50" s="149"/>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="151"/>
       <c r="W50" s="94">
         <f>ROUND(W17+W21+W22+W23+W26+W27+W30+W32+W35+W36+W37,2)</f>
         <v>0</v>
@@ -4780,15 +4809,15 @@
     <row r="51" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="96"/>
       <c r="B51" s="93"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="147"/>
-      <c r="K51" s="147"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="149"/>
+      <c r="F51" s="149"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="149"/>
+      <c r="K51" s="149"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -4796,12 +4825,12 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" s="148" t="s">
+      <c r="S51" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="T51" s="149"/>
-      <c r="U51" s="149"/>
-      <c r="V51" s="149"/>
+      <c r="T51" s="151"/>
+      <c r="U51" s="151"/>
+      <c r="V51" s="151"/>
       <c r="W51" s="94">
         <f>ROUND(W10+W11+W12+W13+W14+W15+W16+W18+W19+W20+W24+W25+W28+W29+W31+W33+W34+W38+W39,2)</f>
         <v>0</v>
@@ -4812,15 +4841,15 @@
     <row r="52" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="96"/>
       <c r="B52" s="93"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="149"/>
+      <c r="E52" s="149"/>
+      <c r="F52" s="149"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="149"/>
+      <c r="J52" s="149"/>
+      <c r="K52" s="149"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
@@ -4828,12 +4857,12 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
-      <c r="S52" s="150" t="s">
+      <c r="S52" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="T52" s="151"/>
-      <c r="U52" s="151"/>
-      <c r="V52" s="151"/>
+      <c r="T52" s="153"/>
+      <c r="U52" s="153"/>
+      <c r="V52" s="153"/>
       <c r="W52" s="97">
         <f>ROUND(W40+W41+W42+W43+W44+W45,2)</f>
         <v>0</v>
@@ -4843,29 +4872,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="L5:O6"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:V6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="S52:V52"/>
     <mergeCell ref="S49:V49"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A17:A20"/>
@@ -4873,11 +4879,34 @@
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:K7"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A47:V47"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="L5:O6"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:V6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A3:Y3"/>
   </mergeCells>
   <conditionalFormatting sqref="L8:N45">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1524,73 +1524,79 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1609,80 +1615,77 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1989,90 +1992,114 @@
   </sheetPr>
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="6" width="7.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="10" width="4.7265625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="119" customWidth="1"/>
-    <col min="12" max="14" width="6.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.26953125" customWidth="1"/>
-    <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.54296875" customWidth="1"/>
-    <col min="19" max="22" width="10.26953125" customWidth="1"/>
-    <col min="23" max="23" width="12.7265625" customWidth="1"/>
-    <col min="24" max="24" width="6.81640625" customWidth="1"/>
-    <col min="25" max="25" width="13.453125" style="85" customWidth="1"/>
-    <col min="26" max="26" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="10" width="4.7109375" style="85" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="119" customWidth="1"/>
+    <col min="12" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="22" width="10.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="85" customWidth="1"/>
+    <col min="26" max="26" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="152"/>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
+      <c r="C1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="153" t="s">
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-    </row>
-    <row r="3" spans="1:25" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+    </row>
+    <row r="3" spans="1:25" s="177" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2102,99 +2129,99 @@
       <c r="W4" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-    </row>
-    <row r="5" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="168" t="s">
+      <c r="X4" s="126"/>
+      <c r="Y4" s="126"/>
+    </row>
+    <row r="5" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160" t="s">
+      <c r="C5" s="132"/>
+      <c r="D5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="124" t="s">
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="130" t="s">
+      <c r="I5" s="163"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="160"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="169" t="s">
+      <c r="M5" s="132"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="169" t="s">
+      <c r="Q5" s="142"/>
+      <c r="R5" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="171" t="s">
+      <c r="S5" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="155" t="s">
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="156"/>
-      <c r="Y5" s="157"/>
-    </row>
-    <row r="6" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="168"/>
-      <c r="B6" s="158" t="s">
+      <c r="X5" s="128"/>
+      <c r="Y5" s="129"/>
+    </row>
+    <row r="6" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="140"/>
+      <c r="B6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="161" t="s">
+      <c r="D6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164" t="s">
+      <c r="E6" s="134"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="176"/>
-      <c r="W6" s="166" t="s">
+      <c r="H6" s="165"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="167"/>
+      <c r="X6" s="139"/>
       <c r="Y6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="168"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="140"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="101" t="s">
         <v>19</v>
       </c>
@@ -2204,7 +2231,7 @@
       <c r="F7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="165"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="122" t="s">
         <v>19</v>
       </c>
@@ -2214,7 +2241,7 @@
       <c r="J7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="132"/>
+      <c r="K7" s="170"/>
       <c r="L7" s="101" t="s">
         <v>19</v>
       </c>
@@ -2233,7 +2260,7 @@
       <c r="Q7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="169"/>
+      <c r="R7" s="141"/>
       <c r="S7" s="107" t="s">
         <v>25</v>
       </c>
@@ -2256,8 +2283,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="142" t="s">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="156" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="6">
@@ -2319,8 +2346,8 @@
       </c>
       <c r="Y8" s="23"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="133"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="157"/>
       <c r="B9" s="24">
         <v>1012</v>
       </c>
@@ -2380,8 +2407,8 @@
       </c>
       <c r="Y9" s="33"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="133"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="157"/>
       <c r="B10" s="24">
         <v>3013</v>
       </c>
@@ -2441,8 +2468,8 @@
       </c>
       <c r="Y10" s="33"/>
     </row>
-    <row r="11" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133"/>
+    <row r="11" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="157"/>
       <c r="B11" s="24">
         <v>3014</v>
       </c>
@@ -2502,8 +2529,8 @@
       </c>
       <c r="Y11" s="40"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="133"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="157"/>
       <c r="B12" s="24">
         <v>3015</v>
       </c>
@@ -2566,8 +2593,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="133"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="157"/>
       <c r="B13" s="24">
         <v>3016</v>
       </c>
@@ -2630,8 +2657,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="133"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="157"/>
       <c r="B14" s="24">
         <v>3017</v>
       </c>
@@ -2691,8 +2718,8 @@
       </c>
       <c r="Y14" s="33"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="133"/>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="157"/>
       <c r="B15" s="24">
         <v>3018</v>
       </c>
@@ -2752,8 +2779,8 @@
       </c>
       <c r="Y15" s="33"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="133"/>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="157"/>
       <c r="B16" s="46">
         <v>3019</v>
       </c>
@@ -2813,8 +2840,8 @@
       </c>
       <c r="Y16" s="56"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="142" t="s">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="156" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="57">
@@ -2876,8 +2903,8 @@
       </c>
       <c r="Y17" s="23"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="133"/>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="157"/>
       <c r="B18" s="24">
         <v>3022</v>
       </c>
@@ -2940,8 +2967,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="133"/>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="157"/>
       <c r="B19" s="24">
         <v>3023</v>
       </c>
@@ -3004,8 +3031,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="143"/>
+    <row r="20" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="158"/>
       <c r="B20" s="46">
         <v>3024</v>
       </c>
@@ -3065,8 +3092,8 @@
       </c>
       <c r="Y20" s="56"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="144" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="159" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="6">
@@ -3128,8 +3155,8 @@
       </c>
       <c r="Y21" s="23"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="145"/>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="160"/>
       <c r="B22" s="24">
         <v>1042</v>
       </c>
@@ -3189,8 +3216,8 @@
       </c>
       <c r="Y22" s="33"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="160"/>
       <c r="B23" s="24">
         <v>1043</v>
       </c>
@@ -3253,8 +3280,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="160"/>
       <c r="B24" s="24">
         <v>4044</v>
       </c>
@@ -3317,8 +3344,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="145"/>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="160"/>
       <c r="B25" s="46">
         <v>4045</v>
       </c>
@@ -3378,8 +3405,8 @@
       </c>
       <c r="Y25" s="56"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="144" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="159" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="57">
@@ -3441,8 +3468,8 @@
       </c>
       <c r="Y26" s="23"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="145"/>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="160"/>
       <c r="B27" s="24">
         <v>1032</v>
       </c>
@@ -3505,8 +3532,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="160"/>
       <c r="B28" s="24">
         <v>4033</v>
       </c>
@@ -3569,8 +3596,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="145"/>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="160"/>
       <c r="B29" s="46">
         <v>4034</v>
       </c>
@@ -3630,8 +3657,8 @@
       </c>
       <c r="Y29" s="56"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="144" t="s">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="159" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6">
@@ -3696,8 +3723,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="145"/>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="160"/>
       <c r="B31" s="46">
         <v>6052</v>
       </c>
@@ -3760,8 +3787,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="144" t="s">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="159" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="6">
@@ -3823,8 +3850,8 @@
       </c>
       <c r="Y32" s="23"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="145"/>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="160"/>
       <c r="B33" s="24">
         <v>6062</v>
       </c>
@@ -3887,8 +3914,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="146"/>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="161"/>
       <c r="B34" s="46">
         <v>6063</v>
       </c>
@@ -3951,8 +3978,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="133" t="s">
+    <row r="35" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="157" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="57">
@@ -4014,8 +4041,8 @@
       </c>
       <c r="Y35" s="23"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="133"/>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="157"/>
       <c r="B36" s="24">
         <v>1072</v>
       </c>
@@ -4078,8 +4105,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="133"/>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="157"/>
       <c r="B37" s="24">
         <v>1073</v>
       </c>
@@ -4142,8 +4169,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="133"/>
+    <row r="38" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="157"/>
       <c r="B38" s="24">
         <v>7074</v>
       </c>
@@ -4203,8 +4230,8 @@
       </c>
       <c r="Y38" s="77"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="133"/>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="157"/>
       <c r="B39" s="46">
         <v>7075</v>
       </c>
@@ -4264,8 +4291,8 @@
       </c>
       <c r="Y39" s="56"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="134" t="s">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="171" t="s">
         <v>70</v>
       </c>
       <c r="B40" s="6">
@@ -4327,8 +4354,8 @@
       </c>
       <c r="Y40" s="23"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="135"/>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="172"/>
       <c r="B41" s="24">
         <v>9092</v>
       </c>
@@ -4388,8 +4415,8 @@
       </c>
       <c r="Y41" s="33"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="135"/>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="172"/>
       <c r="B42" s="24">
         <v>9093</v>
       </c>
@@ -4452,8 +4479,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="135"/>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="172"/>
       <c r="B43" s="24">
         <v>9194</v>
       </c>
@@ -4516,8 +4543,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="135"/>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="172"/>
       <c r="B44" s="24">
         <v>9195</v>
       </c>
@@ -4577,8 +4604,8 @@
       </c>
       <c r="Y44" s="77"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A45" s="136"/>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="173"/>
       <c r="B45" s="46">
         <v>9500</v>
       </c>
@@ -4638,7 +4665,7 @@
       </c>
       <c r="Y45" s="56"/>
     </row>
-    <row r="46" spans="1:25" ht="5.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" ht="5.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81"/>
       <c r="B46" s="82"/>
       <c r="C46" s="81"/>
@@ -4659,31 +4686,31 @@
       <c r="R46" s="83"/>
       <c r="V46" s="84"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A47" s="137" t="s">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="138"/>
-      <c r="K47" s="138"/>
-      <c r="L47" s="138"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="138"/>
-      <c r="P47" s="138"/>
-      <c r="Q47" s="138"/>
-      <c r="R47" s="138"/>
-      <c r="S47" s="138"/>
-      <c r="T47" s="138"/>
-      <c r="U47" s="138"/>
-      <c r="V47" s="139"/>
+      <c r="B47" s="175"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="175"/>
+      <c r="M47" s="175"/>
+      <c r="N47" s="175"/>
+      <c r="O47" s="175"/>
+      <c r="P47" s="175"/>
+      <c r="Q47" s="175"/>
+      <c r="R47" s="175"/>
+      <c r="S47" s="175"/>
+      <c r="T47" s="175"/>
+      <c r="U47" s="175"/>
+      <c r="V47" s="176"/>
       <c r="W47" s="86">
         <f>SUM(W8:W45)</f>
         <v>0</v>
@@ -4691,7 +4718,7 @@
       <c r="X47" s="87"/>
       <c r="Y47"/>
     </row>
-    <row r="48" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="88"/>
       <c r="B48" s="88"/>
       <c r="C48" s="88"/>
@@ -4716,7 +4743,7 @@
       <c r="V48" s="89"/>
       <c r="W48" s="89"/>
     </row>
-    <row r="49" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="90"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -4732,12 +4759,12 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49" s="140" t="s">
+      <c r="S49" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="T49" s="141"/>
-      <c r="U49" s="141"/>
-      <c r="V49" s="141"/>
+      <c r="T49" s="155"/>
+      <c r="U49" s="155"/>
+      <c r="V49" s="155"/>
       <c r="W49" s="91">
         <f>ROUND(W8+W9,2)</f>
         <v>0</v>
@@ -4745,18 +4772,18 @@
       <c r="X49" s="92"/>
       <c r="Y49"/>
     </row>
-    <row r="50" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" s="93"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="147"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="149"/>
+      <c r="K50" s="149"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -4764,12 +4791,12 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50" s="148" t="s">
+      <c r="S50" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="T50" s="149"/>
-      <c r="U50" s="149"/>
-      <c r="V50" s="149"/>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="151"/>
       <c r="W50" s="94">
         <f>ROUND(W17+W21+W22+W23+W26+W27+W30+W32+W35+W36+W37,2)</f>
         <v>0</v>
@@ -4777,18 +4804,18 @@
       <c r="X50" s="95"/>
       <c r="Y50"/>
     </row>
-    <row r="51" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="96"/>
       <c r="B51" s="93"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="147"/>
-      <c r="K51" s="147"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="149"/>
+      <c r="F51" s="149"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="149"/>
+      <c r="K51" s="149"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -4796,12 +4823,12 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" s="148" t="s">
+      <c r="S51" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="T51" s="149"/>
-      <c r="U51" s="149"/>
-      <c r="V51" s="149"/>
+      <c r="T51" s="151"/>
+      <c r="U51" s="151"/>
+      <c r="V51" s="151"/>
       <c r="W51" s="94">
         <f>ROUND(W10+W11+W12+W13+W14+W15+W16+W18+W19+W20+W24+W25+W28+W29+W31+W33+W34+W38+W39,2)</f>
         <v>0</v>
@@ -4809,18 +4836,18 @@
       <c r="X51" s="95"/>
       <c r="Y51"/>
     </row>
-    <row r="52" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="96"/>
       <c r="B52" s="93"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="149"/>
+      <c r="E52" s="149"/>
+      <c r="F52" s="149"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="149"/>
+      <c r="J52" s="149"/>
+      <c r="K52" s="149"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
@@ -4828,12 +4855,12 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
-      <c r="S52" s="150" t="s">
+      <c r="S52" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="T52" s="151"/>
-      <c r="U52" s="151"/>
-      <c r="V52" s="151"/>
+      <c r="T52" s="153"/>
+      <c r="U52" s="153"/>
+      <c r="V52" s="153"/>
       <c r="W52" s="97">
         <f>ROUND(W40+W41+W42+W43+W44+W45,2)</f>
         <v>0</v>
@@ -4843,29 +4870,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="L5:O6"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:V6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="S52:V52"/>
     <mergeCell ref="S49:V49"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A17:A20"/>
@@ -4873,11 +4877,34 @@
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:K7"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A47:V47"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="L5:O6"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:V6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A3:Y3"/>
   </mergeCells>
   <conditionalFormatting sqref="L8:N45">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
